--- a/i18n/excel_from_translation/WarwickHRI.xlsx
+++ b/i18n/excel_from_translation/WarwickHRI.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26220"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="668" documentId="11_7DB19680BC348772174F1123DAF76BA7EA3148CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBE4F552-9E9E-4794-934D-3A042305C255}"/>
+  <xr:revisionPtr revIDLastSave="931" documentId="11_7DB19680BC348772174F1123DAF76BA7EA3148CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF9408CC-76FC-41B3-8658-842B586922D3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="618">
   <si>
     <t>KEY</t>
   </si>
@@ -114,6 +114,38 @@
 REGION: Diese EHS wurde aus Arbeiten im Vereinigten Königreich übernommen.
 ANNAHME: Das Startdatum für das Modell ist der 1. Februar, da dies häufig die kälteste Zeit des Jahres ist.
 REFERENZEN: Collier, R.H. &amp; Finch, S. (1983).   Completion of diapause in field populations of the cabbage root fly (Delia radicum).  Entomologia experimentalis et applicata 34, 186 192. Collier, R.H. &amp; Finch, S. (1983).   Effects of intensity and duration of low temperatures in regulating diapause development of the cabbage root fly (Delia radicum).   Entomologia experimentalis et applicata 34, 193 200. Collier, R. H. &amp; Finch, S. (1986).  Accumulated temperatures for predicting cabbage root fly, Delia radicum (L.), (Diptera; Anthomyiidae) emergence in the spring.  Bulletin of Entomological Research 75, 395 404. Finch, S. &amp; Collier, R.H. (1983).  Emergence of flies from overwintering populations of cabbage root fly pupae.  Ecological Entomology 8, 29 36. Finch, S. &amp; Collier, R.H. (1983).  Emergence of flies from overwintering populations of cabbage root fly pupae.  Ecological Entomology 8, 29 36. Finch, S. &amp; Collier, R. H. (1985).   Laboratory studies on aestivation in the cabbage root fly (Delia radicum).  Entomologia experimentalis et applicata 38, 137 143. Finch, S., Collier, R. H. &amp; Skinner, G. (1986).  Local population differences in emergence of cabbage root flies from south west Lancashire; implications for pest forecasting and population divergence.  Ecological Entomology 11, 139 145. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>ŠKODLJIV ORGANIZEM: Kapusova muha (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Delia radicum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>) prezimi kot buba v diapavzi.  Prva generacija odraslih muh se pojavi spomladi, ko parjene samice odlagajo jajčeca v zemljo blizu korenin kapusnic.  Po izleganju jajčec se ličinke hranijo s koreninami in se lahko vanje zažrejo ter povzročijo škodo. Te ličinke se se zabubijo in razvije se nov rod odraslih osebkov. Glede na lokalno podnebje se lahko število rodov kapusove muhe in njihov časovni potek razlikujeta.  Ko je vreme še posebej vroče, lahko ličinke kapusove muhe vzletajo.  Na nekaterih območjih obstaja dodaten biotip kapusove muhe, ki ima daljšo diapauzo in se pojavi pozneje spomladi.  Ta dva biotipa imenujemo "zgodnje izleganje" in "pozno izleganje". 
+ODLOČITEV: Model napoveduje čas pojavljanja odraslih osebkov in odlaganja jajčec skozi vse leto, kar uporabnikom omogoča ciljno usmerjeno spremljanje in/ali blažilne ukrepe za zmanjšanje tveganja škode na pridelku.
+MODEL: Osnova simulacijskega modela je serija enačb stopnje razvoja, ki so povezane v program.   Model simulira razvoj skupine 500 osebkov, ki se razvijejo do pojava odraslih osebkov, odlaganja jajčec in izleganja. Za vsako stopnjo se vsak dan izračuna odstotek razvoja z integracijo ustrezne krivulje stadija razvoja. Ta odstotek se kopiči po dnevih, dokler ne doseže vrednosti 100. Na tej točki posameznik preide v naslednji stadij. Variabilnost znotraj populacije žuželk je vključena s predpostavko, da so v vsakem trenutku stadija razvoja populacije, ki je na konstantni temperaturi, normalno porazdeljene (Phelps et al, 1993).  Model uporablja temperaturo tal ali zraka, odvisno od stadija razvoja. V modelu je mogoče določiti deleže zgodnjih in poznih biotipov v simulirani populaciji. Ker več skupin napreduje hkrati, se lahko pojavljanje odraslih osebkov in odlaganje jajčec zgodita istočasno.
+PARAMETRI: Za napoved kapusove muhe so potrebne urne temperature tal na globini približno 6 cm in urne temperature zraka.
+REGIJA: Ta sistem DSS je bil prilagojen na podlagi dela, opravljenega v Združenem Kraljestvu.
+Predpostavka: Začetni datum modela je 1. februar, saj je to pogosto najhladnejše obdobje v letu.  LITERATURA: Collier, R.H. &amp; Finch, S. (1983).   Completion of diapause in field populations of the cabbage root fly (Delia radicum).  Entomologia experimentalis et applicata 34, 186 192. Collier, R.H. &amp; Finch, S. (1983).   Effects of intensity and duration of low temperatures in regulating diapause development of the cabbage root fly (Delia radicum).   Entomologia experimentalis et applicata 34, 193 200. Collier, R. H. &amp; Finch, S. (1986).  Accumulated temperatures for predicting cabbage root fly, Delia radicum (L.), (Diptera; Anthomyiidae) emergence in the spring.  Bulletin of Entomological Research 75, 395 404. Finch, S. &amp; Collier, R.H. (1983).  Emergence of flies from overwintering populations of cabbage root fly pupae.  Ecological Entomology 8, 29 36. Finch, S. &amp; Collier, R.H. (1983).  Emergence of flies from overwintering populations of cabbage root fly pupae.  Ecological Entomology 8, 29 36. Finch, S. &amp; Collier, R. H. (1985).   Laboratory studies on aestivation in the cabbage root fly (Delia radicum).  Entomologia experimentalis et applicata 38, 137 143. Finch, S., Collier, R. H. &amp; Skinner, G. (1986).  Local population differences in emergence of cabbage root flies from south west Lancashire; implications for pest forecasting and population divergence.  Ecological Entomology 11, 139 145. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SKADEGJØREREN: Liten kålflue (Delia radicum) overvintrer som puppe, i diapause. Den første generasjonen av voksne fluer dukker opp om våren og befruktede hunnfluer legger eggene sine i jorda nær stammen av kålplanter. Etter klekking lever larvene på røttene, som de kan gå inn i og der forårsake skade. Disse larvene danner pupper, som fører til fremveksten av en ny generasjon voksne fluer. Tidspunktet fluene dukker opp, og hvor mange generasjoner av liten kålflue som klekkes i løpet av sesongen varierer, basert på det lokale klimaet. Når været er spesielt varmt, kan kålfluene ligger i dvale i puppestadiet hele sommeren. I noen områder er det en ekstra biotype av liten kålflue som har en forlenget puppediapause, og først dukker opp senere på våren. Vi kaller de to biotypene "tidlig fremvoksende" og "sent fremvoksende".
@@ -138,6 +170,24 @@
 </t>
   </si>
   <si>
+    <t>LE RAVAGEUR : La mouche du chou (Delia radicum) passe l'hiver sous forme de chrysalide, en diapause.  La première génération de mouches adultes émerge au printemps et les mouches femelles accouplées pondent leurs œufs dans le sol près de la base des plantes de brassica.  Après l'éclosion, les larves se nourrissent des racines et peuvent y creuser des tunnels, causant des dommages.  Ces larves forment des pupes, ce qui entraîne l'émergence d'une nouvelle génération d'adultes.  En fonction du climat local, le nombre de générations de la mouche du chou et la période de leur apparition peuvent varier.  Lorsque le temps est particulièrement chaud, les pupes de la mouche de du chou peuvent entrer en diapause estivale.  Dans certaines régions, il existe un autre biotype de la mouche du chou qui a une diapause nymphale prolongée et qui émerge plus tard au printemps.  Nous appelons ces deux biotypes " émergence précoce " et " émergence tardive ".  
+LA DÉCISION : Le modèle prédit le moment de l'émergence des adultes et de la ponte tout au long de l'année, permettant aux utilisateurs d'entreprendre une surveillance ciblée et/ou des actions d'atténuation pour réduire le risque de dommages à la culture.
+LE MODÈLE : Une série d'équations de vitesse de développement forment la base du modèle de simulation.  Le modèle simule le développement de cohortes de 500 individus à travers l'émergence des adultes, la ponte des œufs et l'éclosion. Pour chaque étape, le pourcentage de développement est calculé chaque jour en intégrant la courbe de taux de développement appropriée. Ce pourcentage est accumulé au fil des jours jusqu'à la valeur de 100%. À ce stade, l'individu passe au stade suivant. La variabilité au sein de la population d'insectes est incorporée en supposant que, à tout instant, les taux de développement d'une population maintenue à une température constante sont distribués selon une loi normale (Phelps et al, 1993).  Le modèle utilise les températures du sol ou de l'air en fonction du stade de développement. Dans le modèle, il est possible de spécifier les proportions des biotypes à émergence précoce et tardive dans la population simulée. Comme plusieurs cohortes progressent simultanément, l'émergence des adultes et la ponte des œufs peuvent se produire en même temps.
+LES PARAMÈTRES : La prévision de la mouche du chou nécessite des températures horaires du sol à une profondeur d'environ 6 cm et des températures horaires de l'air. 
+RÉGION : Cet OAD a été adapté à partir de travaux réalisés au Royaume-Uni 
+HYPOTHESES : La date de début du modèle est le 1er février, car c'est souvent la période la plus froide de l'année.
+RÉFÉRENCE : Collier, R.H. &amp; Finch, S. (1983).   Achèvement de la diapause dans les populations de terrain de la mouche du chou (Delia radicum).  Entomologia experimentalis et applicata 34, 186 192. Collier, R.H. &amp; Finch, S. (1983).   Effects of intensity and duration of low temperatures in regulating diapause development of the cabbage root fly (Delia radicum).   Entomologia experimentalis et applicata 34, 193 200. Collier, R. H. &amp; Finch, S. (1986).  Accumulated temperatures for predicting cabbage root fly, Delia radicum (L.), (Diptera ; Anthomyiidae) emergence in the spring.  Bulletin of Entomological Research 75, 395 404. Finch, S. &amp; Collier, R.H. (1983).  Emergence de mouches à partir de populations hivernantes de pupes de la mouche du chou.  Ecological Entomology 8, 29 36. Finch, S. &amp; Collier, R.H. (1983).  Emergence des mouches des populations hivernantes de pupes de la mouche du chou.  Ecological Entomology 8, 29 36. Finch, S. &amp; Collier, R. H. (1985).   Laboratory studies on aestivation in the cabbage root fly (Delia radicum).  Entomologia experimentalis et applicata 38, 137 143. Finch, S., Collier, R. H. &amp; Skinner, G. (1986).  Local population differences in emergence of cabbage root flies from south west Lancashire ; implications for pest forecasting and population divergence.  Ecological Entomology 11, 139 145. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Méthode de simulation de Monte Carlo pour prévoir le moment des attaques d'insectes nuisibles.  Crop Protection 12, 335-342.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ο Εχθρός: Η μύγα της ρίζας του λάχανου (Delia radicum) διαχειμάζει ως νύμφη, σε διάπαυση.  Η πρώτη γενιά ενήλικων μυγών αναδύεται την άνοιξη και οι ζευγαρωμένες θηλυκές μύγες εναποθέτουν τα αυγά τους στο έδαφος κοντά στη βάση των φυτών μπράσικας.  Μετά την εκκόλαψη, οι προνύμφες τρέφονται με τις ρίζες και μπορεί να εισχωρήσουν σε αυτές, προκαλώντας ζημιές.  Οι προνύμφες αυτές σχηματίζουν νύμφες, οι οποίες οδηγούν στην εμφάνιση μιας νέας γενιάς ενηλίκων.  Ανάλογα με το τοπικό κλίμα, ο αριθμός των γενεών της μύγας της ρίζας του λάχανου και ο χρόνος εμφάνισής τους μπορεί να διαφέρουν.  Όταν ο καιρός είναι ιδιαίτερα ζεστός, τα κουτάβια της μύγας του λάχανου μπορεί να είναι οίστροι.  Σε ορισμένες περιοχές υπάρχει ένας πρόσθετος βιότυπος της μύγας του λάχανου που έχει παρατεταμένη διάπαυση των νυμφών και εμφανίζεται αργότερα την άνοιξη.  Ονομάζουμε τους δύο βιοτύπους �πρώιμη εμφάνιση� και �αργή εμφάνιση�.  
+Η ΑΠΟΦΑΣΗ: Το μοντέλο προβλέπει το χρόνο εμφάνισης των ενηλίκων και της ωοτοκίας καθ' όλη τη διάρκεια του έτους, επιτρέποντας στους χρήστες να αναλάβουν στοχευμένη παρακολούθηση ή/και ενέργειες μετριασμού για τη μείωση του κινδύνου ζημιών στην καλλιέργεια.
+ΤΟ ΜΟΝΤΕΛΟ: Μια σειρά εξισώσεων ρυθμού ανάπτυξης αποτελούν τη βάση του μοντέλου προσομοίωσης και συνδέονται μεταξύ τους σε ένα πρόγραμμα.   Το μοντέλο προσομοιώνει την ανάπτυξη κοορτών των 500 ατόμων μέσω της εμφάνισης ενηλίκων, της ωοτοκίας και της εκκόλαψης. Για κάθε στάδιο, το ποσοστό ανάπτυξης υπολογίζεται κάθε μέρα με την ενσωμάτωση της κατάλληλης καμπύλης ρυθμού ανάπτυξης. Το ποσοστό αυτό συσσωρεύεται με την πάροδο των ημερών έως ότου φθάσει το 100. Σε αυτό το σημείο το άτομο μεταβαίνει στο επόμενο στάδιο. Η μεταβλητότητα εντός του πληθυσμού των εντόμων ενσωματώνεται με την παραδοχή ότι, σε κάθε στιγμή, οι ρυθμοί ανάπτυξης ενός πληθυσμού που διατηρείται σε σταθερή θερμοκρασία κατανέμονται κανονικά (Phelps et al, 1993).  Το μοντέλο χρησιμοποιεί θερμοκρασίες εδάφους ή αέρα ανάλογα με το στάδιο ανάπτυξης. Στο πλαίσιο του μοντέλου είναι δυνατόν να καθοριστούν οι αναλογίες των πρώιμων και των όψιμων βιοτύπων στον προσομοιωμένο πληθυσμό. Καθώς πολλές κοόρτες εξελίσσονται ταυτόχρονα, η εμφάνιση ενηλίκων και η ωοτοκία μπορούν να συμβούν ταυτόχρονα.
+ΟΙ ΠΑΡΑΜΕΤΡΟΙ: Η πρόβλεψη της μύγας της ρίζας του λάχανου απαιτεί ωριαίες θερμοκρασίες εδάφους σε βάθος περίπου 6 cm και ωριαίες θερμοκρασίες αέρα.
+ΠΕΡΙΟΧΗ: Αυτό το DSS προσαρμόστηκε από εργασίες που πραγματοποιήθηκαν στο Ηνωμένο Βασίλειο.
+ΥΠΟΘΕΣΗ: Η ημερομηνία έναρξης του μοντέλου είναι η 1η Φεβρουαρίου, καθώς αυτή είναι συχνά η ψυχρότερη περίοδος του έτους.
+ΑΝΑΦΟΡΑ: Collier, R.H. &amp; Finch, S. (1983).   Completion of diapause in field populations of the cabbage root fly (Delia radicum).  Entomologia experimentalis et applicata 34, 186 192. Collier, R.H. &amp; Finch, S. (1983).   Effects of intensity and duration of low temperatures in regulating diapause development of the cabbage root fly (Delia radicum).   Entomologia experimentalis et applicata 34, 193 200. Collier, R. H. &amp; Finch, S. (1986).  Accumulated temperatures for predicting cabbage root fly, Delia radicum (L.), (Diptera; Anthomyiidae) emergence in the spring.  Bulletin of Entomological Research 75, 395 404. Finch, S. &amp; Collier, R.H. (1983).  Emergence of flies from overwintering populations of cabbage root fly pupae.  Ecological Entomology 8, 29 36. Finch, S. &amp; Collier, R.H. (1983).  Emergence of flies from overwintering populations of cabbage root fly pupae.  Ecological Entomology 8, 29 36. Finch, S. &amp; Collier, R. H. (1985).   Laboratory studies on aestivation in the cabbage root fly (Delia radicum).  Entomologia experimentalis et applicata 38, 137 143. Finch, S., Collier, R. H. &amp; Skinner, G. (1986).  Local population differences in emergence of cabbage root flies from south west Lancashire; implications for pest forecasting and population divergence.  Ecological Entomology 11, 139 145. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.name</t>
   </si>
   <si>
@@ -150,6 +200,9 @@
     <t>Kohlfliege</t>
   </si>
   <si>
+    <t>Kapusova muha</t>
+  </si>
+  <si>
     <t>Liten kålflue</t>
   </si>
   <si>
@@ -159,9 +212,15 @@
     <t>Kaalikärpänen</t>
   </si>
   <si>
+    <t>Mouche du chou</t>
+  </si>
+  <si>
     <t>Mosca delle radici del cavolo</t>
   </si>
   <si>
+    <t>Μύγα ρίζας λάχανου</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.chart_groups.G1.title</t>
   </si>
   <si>
@@ -174,15 +233,24 @@
     <t>Kumulatives Auftreten</t>
   </si>
   <si>
+    <t>Kumulativni pojav</t>
+  </si>
+  <si>
     <t>Kumulativ förekomst</t>
   </si>
   <si>
     <t>Kumulatiivinen esiintyminen</t>
   </si>
   <si>
+    <t>Emergence cumulée</t>
+  </si>
+  <si>
     <t>Emersione cumulativa</t>
   </si>
   <si>
+    <t>Αθροιστική ανάδυση</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.chart_groups.G2.title</t>
   </si>
   <si>
@@ -195,6 +263,9 @@
     <t>Kumulative Eiablage</t>
   </si>
   <si>
+    <t>Kumulativno odlaganje jajčec</t>
+  </si>
+  <si>
     <t>Kumulativ egglegging</t>
   </si>
   <si>
@@ -204,9 +275,15 @@
     <t>Kumulatiivinen muninta</t>
   </si>
   <si>
+    <t>Ponte cumulée</t>
+  </si>
+  <si>
     <t>Deposizione cumulativa di uova</t>
   </si>
   <si>
+    <t>Αθροιστική ωοτοκία</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.chart_heading</t>
   </si>
   <si>
@@ -231,6 +308,9 @@
     <t>Kumulatives Auftreten des Rapsglanzkäfers</t>
   </si>
   <si>
+    <t>Kumulativni pojav repičarja</t>
+  </si>
+  <si>
     <t>Kumulativ forekomst av rapsglansbille</t>
   </si>
   <si>
@@ -240,9 +320,15 @@
     <t>Rapsikuoriaisten kumulatiivinen ilmestyminen</t>
   </si>
   <si>
+    <t>Emergence cumulative des méligètes</t>
+  </si>
+  <si>
     <t>Emersione cumulativa del coleottero del polline</t>
   </si>
   <si>
+    <t>Σωρευτική εμφάνιση του σκαθαριού γύρης</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.result_parameters.Cumulative_Emergence.title</t>
   </si>
   <si>
@@ -261,6 +347,9 @@
     <t>Schwellenwert für hohes Risiko</t>
   </si>
   <si>
+    <t>Prag visokega tveganja</t>
+  </si>
+  <si>
     <t>Terskel for høy risiko</t>
   </si>
   <si>
@@ -270,9 +359,15 @@
     <t>Korkea riskikynnys</t>
   </si>
   <si>
+    <t>Seuil de risque élevé</t>
+  </si>
+  <si>
     <t>Soglia di rischio elevato</t>
   </si>
   <si>
+    <t>Κατώτατο όριο υψηλού κινδύνου</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.result_parameters.High_Risk_Threshold.title</t>
   </si>
   <si>
@@ -291,6 +386,9 @@
     <t>Schwellenwert für niedriges Risiko</t>
   </si>
   <si>
+    <t>Prag nizkega tveganja</t>
+  </si>
+  <si>
     <t>Terskel for lav risiko</t>
   </si>
   <si>
@@ -300,9 +398,15 @@
     <t>Matala riskikynnys</t>
   </si>
   <si>
+    <t>Seuil de risque faible</t>
+  </si>
+  <si>
     <t>Soglia di rischio bassa</t>
   </si>
   <si>
+    <t>Κατώτατο όριο χαμηλού κινδύνου</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.result_parameters.Low_Risk_Threshold_First.title</t>
   </si>
   <si>
@@ -327,15 +431,24 @@
     <t>Schwellenwert für mittleres Risiko</t>
   </si>
   <si>
+    <t>Prag srednjega tveganja</t>
+  </si>
+  <si>
     <t>Terskel for medium risiko</t>
   </si>
   <si>
     <t>Keskisuuri riskikynnys</t>
   </si>
   <si>
+    <t>Seuil de risque moyen</t>
+  </si>
+  <si>
     <t>Soglia di rischio medio</t>
   </si>
   <si>
+    <t>Κατώτατο όριο μεσαίου κινδύνου</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.result_parameters.Medium_Risk_Threshold.title</t>
   </si>
   <si>
@@ -357,15 +470,24 @@
     <t>Fehlende Daten.</t>
   </si>
   <si>
+    <t>Manjkajoči podatki.</t>
+  </si>
+  <si>
     <t>Data saknas</t>
   </si>
   <si>
     <t>Puuttuvat tiedot.</t>
   </si>
   <si>
+    <t>Données manquantes.</t>
+  </si>
+  <si>
     <t>Dati mancanti</t>
   </si>
   <si>
+    <t>Λείπουν δεδομένα.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.warning_status_interpretation.1.recommended_action</t>
   </si>
   <si>
@@ -378,6 +500,9 @@
     <t>Überprüfen Sie die Fehlermeldung.</t>
   </si>
   <si>
+    <t>Preglejte sporočilo o napaki.</t>
+  </si>
+  <si>
     <t>Se feilmelding</t>
   </si>
   <si>
@@ -387,9 +512,15 @@
     <t>Tarkista virheilmoitus.</t>
   </si>
   <si>
+    <t>Vérifier le message d'erreur.</t>
+  </si>
+  <si>
     <t>Rivedere il messaggio di errore</t>
   </si>
   <si>
+    <t>Αναθεώρηση μηνύματος σφάλματος.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.warning_status_interpretation.2.explanation</t>
   </si>
   <si>
@@ -402,6 +533,9 @@
     <t>Dieses Modell sammelt Daten zur Ausführung. Auf der Grundlage der verfügbaren Daten deuten die Modellergebnisse darauf hin, dass kein aktuelles Risiko einer Schädlingsaktivität besteht.</t>
   </si>
   <si>
+    <t>Ta model zbira podatke za zagon. Na podlagi razpoložljivih podatkov rezultati modela kažejo, da trenutno ni nevarnosti za delovanje škodljivcev.</t>
+  </si>
+  <si>
     <t>Modellen samler data for å kjøre. Basert på tilgjengelige data indikerer ikke modellen en risiko for skadegjører-aktivitet.</t>
   </si>
   <si>
@@ -411,6 +545,12 @@
     <t>Tämä malli kerää tietoja suoritettavaksi. Käytettävissä olevien tietojen perusteella mallin tulokset osoittavat, ettei tällä hetkellä tuholaisriskiä ole.</t>
   </si>
   <si>
+    <t>Ce modèle est en train de collecter des données pour fonctionner. Sur la base des données disponibles, les résultats du modèle n'indiquent aucun risque actuel d'activité parasitaire.</t>
+  </si>
+  <si>
+    <t>Αυτό το μοντέλο συλλέγει δεδομένα για να τρέξει. Βάσει των διαθέσιμων δεδομένων, τα αποτελέσματα του μοντέλου δεν υποδεικνύουν τρέχοντα κίνδυνο δραστηριότητας παρασίτων.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.warning_status_interpretation.2.recommended_action</t>
   </si>
   <si>
@@ -423,6 +563,9 @@
     <t>Das Risiko 1) des Auftretens und/oder 2) der Eiablage ist gering.  Überprüfen Sie das Risiko weiter.</t>
   </si>
   <si>
+    <t>Tveganje 1) pojava in/ali 2) odlaganja jajčec je majhno.  Nadaljujte s pregledovanjem tveganja.</t>
+  </si>
+  <si>
     <t>Risikoen for 1) forekomst og/eller 2) egglegging, er lav. Fortsett å overvåke risikoen.</t>
   </si>
   <si>
@@ -432,6 +575,12 @@
     <t>1) syntymisen ja/tai 2) munimisen riski on pieni. Jatka riskien tarkastelua.</t>
   </si>
   <si>
+    <t>Le risque 1) d'émergence, et/ou 2) de ponte, est faible.  Continuer la surveillance du risque.</t>
+  </si>
+  <si>
+    <t>Ο κίνδυνος 1) εμφάνισης ή/και 2) ωοτοκίας είναι χαμηλός.  Συνεχίστε να επανεξετάζετε τον κίνδυνο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.warning_status_interpretation.3.explanation</t>
   </si>
   <si>
@@ -444,6 +593,9 @@
     <t xml:space="preserve">Dieses Modell läuft von Februar bis Dezember. Auf der Grundlage der aktuell verfügbaren Daten prognostiziert das Modell ein mittleres Risiko. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ta model deluje od februarja do decembra. Na podlagi trenutnih razpoložljivih podatkov model napoveduje srednje tveganje. </t>
+  </si>
+  <si>
     <t>Modellen kjører fra februar til desember. Basert på tilgjengelige data forutser modellen en medium risiko.</t>
   </si>
   <si>
@@ -453,6 +605,12 @@
     <t>Tämä malli on käytössä helmi-joulukuussa. Nykyisten käytettävissä olevien tietojen perusteella malli ennustaa keskitason riskiä.</t>
   </si>
   <si>
+    <t>Ce modèle fonctionne de février à décembre. Sur la base des données actuelles disponibles, le modèle prévoit un risque moyen.</t>
+  </si>
+  <si>
+    <t>Αυτό το μοντέλο λειτουργεί από τον Φεβρουάριο έως τον Δεκέμβριο. Με βάση τα τρέχοντα διαθέσιμα δεδομένα, το μοντέλο προβλέπει μέτριο κίνδυνο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.warning_status_interpretation.3.recommended_action</t>
   </si>
   <si>
@@ -465,6 +623,9 @@
     <t>Das Risiko des Auftretens von 1) und/oder 2) der Eiablage nimmt zu. Erhöhen Sie die Überwachungsmaßnahmen in gefährdeten Kulturen.  Ein mittleres Risiko ist gegeben, wenn eine der folgenden Bedingungen für eine der Generationen erreicht wird: 1) bis zu 10 % kumulativer Aufgang und/oder 2) bis zu 10 % kumulative Eiablage.  Um die Ursache des Risikos zu ermitteln, sehen Sie sich bitte die beigefügten Diagramme an, die zeigen, wann ein Schwellenwert überschritten wurde.</t>
   </si>
   <si>
+    <t>Tveganje 1) pojava in/ali 2) odlaganja jajčec se povečuje. Pozorneje spremljajte prisotnost škodljivih organizmov na dovzetnih posevkih. Srednje tveganje se pokaže, če je za katero koli od naslednjih generacij doseženo naslednje: 1) do 10 % kumulativnega pojava in/ali 2) do 10 % kumulativnega odlaganja jajčec.  Da bi ugotovili vzrok tveganja, si oglejte priložene grafe, ki ponazarjajo, kdaj je bil prag presežen.</t>
+  </si>
+  <si>
     <t>Risikoen for 1) forekomst og/eller 2) egglegging, er økende. Øk overvåkingen av sårbare avlinger. Modellen indikerer en medium risiko når et av følgende oppnås for en av generasjonene; 1) opp til 10 % kumulativ forekomst, og/eller 2) opp til 10 % kumulativ egglegging. Se de vedlagte figurene som viser hvilken faktor som har resultert i medium risiko.</t>
   </si>
   <si>
@@ -474,6 +635,12 @@
     <t>Riski 1) puhkeamisesta ja/tai 2) munimisesta kasvaa. Lisää alttiiden viljelykasvien tarkkailua. Keskisuuri riski on indikoitu, kun jokin seuraavista saavutetaan jollekin sukupolvelle; 1) enintään 10 % kumulatiivinen esiintyminen ja/tai 2) enintään 10 % kumulatiivinen mununta. Määrittääksesi riskin syyn, katso oheiset kaaviot, jotka osoittavat, milloin kynnys on ylitetty.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le risque 1) d'émergence, et/ou 2) de ponte, est en augmentation. Augmentez les efforts de surveillance dans les cultures vulnérables.  Un risque moyen est indiqué lorsque l'un des seuils suivants est atteint pour l'une des générations : 1) jusqu'à 10 % d'émergence cumulée, et/ou 2) jusqu'à 10 % de ponte cumulée. </t>
+  </si>
+  <si>
+    <t>Ο κίνδυνος 1) εμφάνισης ή/και 2) ωοτοκίας αυξάνεται. Αυξήστε τις προσπάθειες παρακολούθησης σε ευάλωτες καλλιέργειες.  Ο μέσος κίνδυνος υποδεικνύεται όταν επιτυγχάνεται ένα από τα ακόλουθα για οποιαδήποτε από τις γενιές: 1) έως 10% αθροιστικά εμφάνιση, ή/και 2) έως 10% αθροιστικά ωοτοκία.  Για να προσδιορίσετε την αιτία του κινδύνου, ανατρέξτε στα συνοδευτικά διαγράμματα, τα οποία απεικονίζουν πότε έχει ξεπεραστεί ένα όριο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.warning_status_interpretation.4.explanation</t>
   </si>
   <si>
@@ -486,6 +653,9 @@
     <t xml:space="preserve">Dieses Modell läuft von Februar bis Dezember. Auf der Grundlage der derzeit verfügbaren Daten prognostiziert das Modell ein hohes Risiko. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ta model deluje od februarja do decembra. Na podlagi trenutno razpoložljivih podatkov model napoveduje visoko tveganje. </t>
+  </si>
+  <si>
     <t>Modellen kjører fra februar til desember. Basert på tilgjengelige data forutser modellen en høy risiko.</t>
   </si>
   <si>
@@ -495,6 +665,12 @@
     <t>Tämä malli on käytössä helmi-joulukuussa. Nykyisten saatavilla olevien tietojen perusteella malli ennustaa suurta riskiä.</t>
   </si>
   <si>
+    <t>Ce modèle fonctionne de février à décembre. Sur la base des données actuelles disponibles, le modèle prévoit un risque élevé.</t>
+  </si>
+  <si>
+    <t>Αυτό το μοντέλο λειτουργεί από τον Φεβρουάριο έως τον Δεκέμβριο. Με βάση τα τρέχοντα διαθέσιμα δεδομένα, το μοντέλο προβλέπει υψηλό κίνδυνο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.output.warning_status_interpretation.4.recommended_action</t>
   </si>
   <si>
@@ -507,6 +683,9 @@
     <t>Das Risiko 1) des Auftretens und/oder 2) der Eiablage ist hoch. Überwachen Sie gefährdete Kulturen auf Aktivitäten im Feld. Ein hohes Risiko wird angezeigt, wenn eine der folgenden Bedingungen für eine der Generationen erreicht wird: 1) 10-50% kumulativer Aufgang und/oder 2) 10-50% kumulative Eiablage.  Um die Ursache des Risikos zu ermitteln, sehen Sie sich bitte die beigefügten Diagramme an, die zeigen, wann ein Schwellenwert überschritten wurde.</t>
   </si>
   <si>
+    <t>Tveganje 1) pojava in/ali 2) odlaganja jajčec je visoko. Pozorno spremljajte prisotnost kapusove muhe v posevku. Visoko tveganje se pokaže, ko je za katero koli od naslednjih generacij doseženo naslednje: 1) 10-50 % kumulativnega pojava in/ali 2) 10-50 % kumulativnega odlaganja jajčec.  Da bi ugotovili vzrok tveganja, si oglejte priložene ploskve, ki ponazarjajo, kdaj je bil prag presežen.</t>
+  </si>
+  <si>
     <t>Risikoen for 1) forekomst og/eller 2) egglegging, er høy. Overvåk sårbare avlinger etter skadegjører-aktivitet. Modellen indikerer en høyrisiko når et av følgende oppnås for en av generasjonene; 1) 10 – 50 % kumulativ forekomst, og/eller 2) 10 – 50 % kumulativ egglegging. Se de vedlagte figurene som viser hvilken faktor som har resultert i høy risiko.</t>
   </si>
   <si>
@@ -516,6 +695,12 @@
     <t>Riski 1) puhkeamisesta ja/tai 2) munimisesta on suuri. Tarkkaile alttiita viljelykasveja pellolla tarvittavien toimenpiteiden varalta. Korkea riski on indikoitu, kun jokin seuraavista saavutetaan jollekin sukupolvelle; 1) 10-50 % kumulatiivinen muniminen ja/tai 2) 10-50 % kumulatiivinen muniminen. Määrittääksesi riskin syyn, katso oheiset kaaviot, jotka osoittavat, milloin kynnys on ylitetty.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le risque 1) d'émergence, et/ou 2) de ponte, est élevé. Surveiller les cultures vulnérables pour l'activité au champ. Un risque élevé est indiqué lorsque l'un des seuils suivants est atteint pour l'une ou l'autre des générations ; 1) 10-50 % d'émergence cumulative, et/ou 2) 10-50 % de ponte cumulative. </t>
+  </si>
+  <si>
+    <t>Ο κίνδυνος 1) εμφάνισης ή/και 2) ωοτοκίας είναι υψηλός. Παρακολουθήστε τις ευάλωτες καλλιέργειες για δραστηριότητα στον αγρό. Ο υψηλός κίνδυνος υποδεικνύεται όταν επιτυγχάνεται ένα από τα ακόλουθα για οποιαδήποτε από τις γενιές: 1) 10-50% αθροιστική εμφάνιση, και/ή 2) 10-50% αθροιστική ωοτοκία.  Για να προσδιορίσετε την αιτία του κινδύνου, ανατρέξτε στα συνοδευτικά διαγράμματα, τα οποία θα απεικονίζουν πότε έχει ξεπεραστεί ένα όριο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.HYLERA.purpose</t>
   </si>
   <si>
@@ -528,6 +713,9 @@
     <t>Schätzt den Zeitpunkt der Aktivität der Kohlfliege</t>
   </si>
   <si>
+    <t>Ocena časa aktivnosti kapusove muhe</t>
+  </si>
+  <si>
     <t>Fortusier tidspunkt for aktivitet av liten kålflue</t>
   </si>
   <si>
@@ -535,6 +723,12 @@
   </si>
   <si>
     <t>Arvioi kaalikärpäsen aktiivisuuden ajoituksen</t>
+  </si>
+  <si>
+    <t>Estime la période d'activité de la mouche du chou</t>
+  </si>
+  <si>
+    <t>Εκτιμά τη χρονική στιγμή της δραστηριότητας της μύγας της ρίζας του λάχανου</t>
   </si>
   <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.description</t>
@@ -564,6 +758,32 @@
 REGION: Dieses EHS wurde aus Arbeiten im Vereinigten Königreich übernommen.
 ANNAHME: Das Startdatum für das Modell ist der 1. Februar, da dies oft die kälteste Zeit des Jahres ist.
 REFERENZEN:  Collier, R.H. &amp; Finch, S. (1992). The effects of temperature on development of the large narcissus fly (Merodon equestris).  Annals of Applied Biology, 120, 383-390. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342.</t>
+  </si>
+  <si>
+    <r>
+      <t>ŠKODLJIV ORGANIZEM: Muha trepetavka (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Merodon equestris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>) je vrsta muhe, katere ličinke se hranijo z narcisami.  Muha prezimi v poškodovanih čebulicah kot odrasla ličinka, ki se spomladi preseli v zemljo in se zabubi. Ko se izležejo, odrasli osebki odlagajo jajčeca v zemljo blizu čebulic narcis. Ko se ličinke izležejo, se zakopljejo v zemljo in skozi bazalno ploščo vstopijo v čebulice. Ličinke se hranijo in rastejo v čebulicah ter uničujejo njihove sredice. Vsako leto se pojavi le ena generacija. ODLOČITEV: Ta model napoveduje čas pojava odraslih osebkov, odlaganja jajčec in izleganja jajčec, kar uporabnikom omogoča izvajanje ciljnega spremljanja in/ali blažilnih ukrepov za zmanjšanje tveganja škode na pridelku. MODEL: Osnova simulacijskega modela je serija enačb stopnje razvoja, ki so povezane v program.   Model simulira razvoj skupine 500 osebkov, ki se razvijejo do pojava odraslih osebkov, odlaganja jajčec in izleganja. Za vsako stopnjo se vsak dan izračuna odstotek razvoja z integracijo ustrezne krivulje stadija razvoja. Ta odstotek se kopiči po dnevih, dokler ne doseže vrednosti 100. Na tej točki posameznik preide v naslednji stadij. Variabilnost znotraj populacije žuželk je vključena s predpostavko, da so v vsakem trenutku stadija razvoja populacije, ki je na konstantni temperaturi, normalno porazdeljene (Phelps et al, 1993).  Model uporablja temperaturo tal ali zraka, odvisno od stadija razvoja. V modelu je mogoče določiti deleže zgodnjih in poznih biotipov v simulirani populaciji. Ker več skupin napreduje hkrati, se lahko pojavljanje odraslih osebkov in odlaganje jajčec zgodita istočasno. PARAMETRI: Za napoved muhe trepetavke so potrebne urne temperature tal na globini približno 6 cm in urne temperature zraka. REGIJA: Ta DSS je bil prilagojen na podlagi dela, opravljenega v Združenem Kraljestvu. PREDPOSTAVKE: Začetni datum za model je 1. februar, saj je to pogosto najhladnejše obdobje v letu. LITERATURA:  Collier, R.H. &amp; Finch, S. (1992). The effects of temperature on development of the large narcissus fly (Merodon equestris).  Annals of Applied Biology, 120, 383-390. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SKADEGJØREREN: Vanlig narsissflue (Merodon equestris) er en art av blomsterflue hvis larver lever av påskeliljer. Vanlig narsissflue overvintrer inne i skadede løker som fullvoksne larver. Larvene beveger seg ned i jorden om våren for å danne pupper om. De voksne fluene legger eggene sine i jorda nær blomsterløkene. Etter at de klekkes, graver larvene seg gjennom jorden og går inn i løkene via basalplaten. Larvene lever og vokser inne i løkene ødelegger dem. Vanlig narsissflue gjennomgår bare en generasjon hvert år.
@@ -579,6 +799,15 @@
     <t>SKADEGÖRAREN: Bred narcissblomfluga (Merodon equestris) är en art av blomfluga vars larver livnär sig på påskliljor. Bred narcissblomfluga övervintrar inuti skadade lökar som fullvuxna larver. Larverna rör sig ner i jorden på våren för att bilda puppar. De vuxna flugorna lägger sina ägg i jorden nära blomlökarna. Efter att de kläckts gräver sig larverna genom jorden och kommer in i löken via basalplattan. Larverna lever och växer inuti löken förstör dem. Vanlig narcissistisk fluga genomgår bara en generation varje år.  BESLUTET: Denna modell förutsäger tidpunkten för uppkomst av vuxna flugor, äggläggning och äggkläckning, vilket gör det möjligt för användare att genomföra riktad övervakning och/eller åtgärder för att minska risken för skador på grödor.  MODELLEN: En serie ekvationer för utvecklingshastigheter i vanlig narcissfluga ligger till grund för simuleringsmodellen och kopplas samman i ett program. Modellen simulerar utvecklingen av kohorter på 500 individer från vuxen ålder tills de lägger ägg och äggen kläcks. För varje steg beräknas den dagliga procentuella utvecklingen genom att integrera lämplig utvecklingshastighetskurva. Denna procentandel ackumuleras över flera dagar tills den når 100. Vid denna tidpunkt fortsätter individen till nästa steg. Variabiliteten i insektspopulationen införlivas genom att anta att utvecklingshastigheterna för en population som hålls vid en konstant temperatur är normalfördelad (Phelps et al, 1993). Modellen använder marktemperaturer eller lufttemperaturer beroende på utvecklingsstadiet. Eftersom flera kohorter utvecklas samtidigt kan närvaron av vuxna individer och äggläggning ske samtidigt.  PARAMETRARNA: Prognosen för bred narcissblomfluga kräver tillgång till marktemperatur per timme på cirka 6 cm djup och lufttemperatur per timme.  REGION: Denna DSS har anpassat efter studier utförda i Storbritannien.  FÖRUTSÄTTNING: Modellens startdatum är den 1 februari, eftersom detta ofta är den kallaste perioden på året.  REFERENS: Collier, R.H. &amp; Finch, S. (1992). The effects of temperature on development of the large narcissus fly (Merodon equestris). Annals of Applied Biology, 120, 383-390. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993). Monte Carlo simulation method for forecasting the timing of pest insect attacks. Crop Protection 12, 335-342.</t>
   </si>
   <si>
+    <t>LE RAVAGEUR : La mouche du narcisse (Merodon equestris) est une espèce de syrphe dont les larves se nourrissent de narcisses (jonquilles).  Les mouches du narcisse hivernent à l'intérieur des bulbes endommagés sous forme de larves adultes qui se déplacent dans le sol pour former des pupes au printemps. À leur sortie, les adultes pondent leurs œufs dans le sol, à proximité des bulbes de narcisses. Après l'éclosion, les larves creusent dans le sol et pénètrent dans les bulbes par la plaque basale. Les larves se nourrissent et se développent à l'intérieur des bulbes et détruisent leurs centres.  Il n'y a qu'une seule génération par an.
+LA DÉCISION : Ce modèle prédit le moment de l'émergence des adultes, de la ponte et de l'éclosion des œufs, permettant aux utilisateurs d'entreprendre une surveillance ciblée et/ou des actions d'atténuation pour réduire le risque de dommages à la culture.
+LE MODÈLE : Une série d'équations de taux de développement forment la base du modèle de simulation.  Le modèle simule le développement de cohortes de 500 individus à travers l'émergence des adultes, la ponte des œufs et l'éclosion. Pour chaque étape, le pourcentage de développement est calculé chaque jour en intégrant la courbe de taux de développement appropriée.  Ce pourcentage est accumulé au fil des jours jusqu'à ce qu'il atteigne 100. À ce stade, l'individu passe au stade suivant. La variabilité au sein de la population d'insectes est incorporée en supposant que, à tout instant, les taux de développement d'une population maintenue à une température constante sont distribués selon une loi normale (Phelps et al, 1993). Le modèle utilise les températures du sol ou de l'air en fonction du stade de développement. Comme plusieurs cohortes progressent simultanément, l'émergence des adultes, la ponte des œufs et/ou l'éclosion des œufs peuvent se produire en même temps. 
+LES PARAMÈTRES : La prévision du développement de la mouche du narcisse nécessite des températures horaires du sol à une profondeur d'environ 6 cm et des températures horaires de l'air. 
+RÉGION : Cet OAD a été adapté à partir de travaux effectués au Royaume-Uni 
+HYPOTHESE : La date de début du modèle est le 1er février, car c'est souvent la période la plus froide de l'année.
+RÉFÉRENCE :  Collier, R.H. &amp; Finch, S. (1992). Les effets de la température sur le développement de la mouche des narcisses (Merodon equestris).  Annals of Applied Biology, 120, 383-390. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Méthode de simulation de Monte Carlo pour prévoir le moment des attaques d'insectes nuisibles.  Crop Protection 12, 335-342.</t>
+  </si>
+  <si>
     <t>"Il parassita: la mosca delle radici del cavolo (Delia radicum) sverna come pupa, in diapausa.  La prima generazione di mosche adulte emerge in primavera e le femmine accoppiate depongono le uova nel terreno vicino alla base delle piante di brassica.  Dopo la schiusa, le larve si nutrono delle radici e possono scavare una galleria all'interno delle stesse, causando danni.  Queste larve formano le pupe, che portano alla nascita di una nuova generazione di adulti.  A seconda del clima locale, il numero di generazioni della mosca delle radici del cavolo e la loro tempistica possono variare.  Quando il clima è particolarmente caldo, le pupe della mosca del cavolo possono estivare.  In alcune aree esiste un ulteriore biotipo di mosca del cavolo che ha una diapausa pupale prolungata ed emerge più tardi in primavera.  Chiamiamo i due biotipi "emergente precoce" e "emergente tardivo".  
 LA DECISIONE: Il modello prevede i tempi di comparsa degli adulti e di deposizione delle uova nel corso dell'anno, consentendo agli utenti di intraprendere un monitoraggio mirato e/o azioni di mitigazione per ridurre il rischio di danni alle colture.
 IL MODELLO: Una serie di equazioni del tasso di sviluppo costituiscono la base del modello di simulazione e sono collegate tra loro in un programma.   Il modello simula lo sviluppo di coorti di 500 individui attraverso la comparsa degli adulti, la deposizione delle uova e la schiusa. Per ogni stadio, la percentuale di sviluppo viene calcolata ogni giorno integrando la curva del tasso di sviluppo appropriato. Questa percentuale viene accumulata nel corso dei giorni fino a raggiungere il valore di 100. A questo punto l'individuo passa alla fase di crescita. A questo punto l'individuo passa allo stadio successivo. La variabilità all'interno della popolazione di insetti è incorporata assumendo che, in qualsiasi istante, i tassi di sviluppo di una popolazione mantenuta a temperatura costante siano normalmente distribuiti (Phelps et al, 1993).  Il modello utilizza le temperature del suolo o dell'aria a seconda dello stadio di sviluppo. All'interno del modello è possibile specificare le proporzioni dei biotipi che emergono precocemente e tardivamente nella popolazione simulata. Poiché più coorti progrediscono simultaneamente, l'emergenza degli adulti e la deposizione delle uova possono avvenire contemporaneamente.
@@ -588,6 +817,10 @@
 RIFERIMENTI: Collier, R.H. &amp; Finch, S. (1992). The effects of temperature on development of the large narcissus fly (Merodon equestris).  Annals of Applied Biology, 120, 383-390. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ο Εχθρός: Η Μεγάλη Μύγα Νάρκισσος (Merodon equestris) είναι ένα είδος αιωρομύγας, οι προνύμφες της οποίας τρέφονται με Νάρκισσους (νάρκισσους).  Οι μεγάλες μύγες των νάρκισσων διαχειμάζουν μέσα σε κατεστραμμένους βολβούς ως πλήρως αναπτυγμένες προνύμφες, οι οποίες μετακινούνται στο έδαφος για να σχηματίσουν κουκούλια την άνοιξη. Όταν βγαίνουν, τα ενήλικα γεννούν τα αυγά τους στο έδαφος κοντά στους βολβούς των νάρκισσων. Αφού εκκολαφθούν, οι προνύμφες σκάβουν μέσα στο έδαφος και εισέρχονται στους βολβούς μέσω της βασικής πλάκας. Οι προνύμφες τρέφονται και αναπτύσσονται στο εσωτερικό των βολβών και καταστρέφουν τα κέντρα τους.  Υπάρχει μόνο μία γενιά κάθε χρόνο. Η ΑΠΟΦΑΣΗ: Αυτό το μοντέλο προβλέπει το χρόνο εμφάνισης των ενηλίκων, την ωοτοκία και την εκκόλαψη των αυγών, επιτρέποντας στους χρήστες να αναλάβουν στοχευμένη παρακολούθηση ή/και ενέργειες μετριασμού για τη μείωση του κινδύνου ζημιών στην καλλιέργεια. ΤΟ ΜΟΝΤΕΛΟ: Μια σειρά εξισώσεων ρυθμού ανάπτυξης αποτελούν τη βάση του μοντέλου προσομοίωσης και συνδέονται μεταξύ τους σε ένα πρόγραμμα.  Το μοντέλο προσομοιώνει την ανάπτυξη κοορτών 500 ατόμων μέχρι την εμφάνιση ενηλίκων, την ωοτοκία και την εκκόλαψη.  Για κάθε στάδιο, το ποσοστό ανάπτυξης υπολογίζεται κάθε μέρα με την ενσωμάτωση της κατάλληλης καμπύλης ρυθμού ανάπτυξης.  Το ποσοστό αυτό συσσωρεύεται με την πάροδο των ημερών έως ότου φθάσει το 100. Σε αυτό το σημείο το άτομο μεταβαίνει στο επόμενο στάδιο. Η μεταβλητότητα εντός του πληθυσμού των εντόμων ενσωματώνεται με την παραδοχή ότι, σε κάθε στιγμή, οι ρυθμοί ανάπτυξης ενός πληθυσμού που διατηρείται σε σταθερή θερμοκρασία κατανέμονται κανονικά (Phelps et al, 1993).  Το μοντέλο χρησιμοποιεί θερμοκρασίες εδάφους ή αέρα ανάλογα με το στάδιο ανάπτυξης. Καθώς πολλές κοόρτες εξελίσσονται ταυτόχρονα, η εμφάνιση ενηλίκων, η ωοτοκία ή/και η εκκόλαψη αυγών μπορεί να συμβαίνουν ταυτόχρονα.  ΟΙ ΠΑΡΑΜΕΤΡΟΙ: Η πρόβλεψη της μεγάλης μύγας Narcissus απαιτεί ωριαίες θερμοκρασίες εδάφους σε βάθος περίπου 6 cm και ωριαίες θερμοκρασίες αέρα.
+ΠΕΡΙΟΧΗ: Αυτό το DSS προσαρμόστηκε από εργασίες που πραγματοποιήθηκαν στο Ηνωμένο Βασίλειο. ΥΠΟΘΕΣΗ: Η ημερομηνία έναρξης του μοντέλου είναι η 1η Φεβρουαρίου, καθώς αυτή είναι συχνά η ψυχρότερη περίοδος του έτους. ΑΝΑΦΟΡΑ: Collier, R.H. &amp; Finch, S. (1992). The effects of temperature on development of the large narcissus fly (Merodon equestris).  Annals of Applied Biology, 120, 383-390. Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342."</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.name</t>
   </si>
   <si>
@@ -600,21 +833,33 @@
     <t>Modell für die Gemeine Narzissenschwebfliege</t>
   </si>
   <si>
+    <t>Model muhe trepetavke</t>
+  </si>
+  <si>
     <t>Modell for vanlig narsissflue</t>
   </si>
   <si>
     <t>Modell för bred narscissblomfluga</t>
   </si>
   <si>
+    <t>Modèle de la mouche du narcisse</t>
+  </si>
+  <si>
     <t>Modello di mosca narciso grande</t>
   </si>
   <si>
+    <t>Μοντέλο μεγάλης μύγας Narcissus</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.chart_groups.G1.title</t>
   </si>
   <si>
     <t>Kumulativ fremkomst</t>
   </si>
   <si>
+    <t>Kumulativno pojavljanje</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.chart_groups.G2.title</t>
   </si>
   <si>
@@ -630,15 +875,24 @@
     <t>Kumulativer Schlupf der Eier</t>
   </si>
   <si>
+    <t>Kumulativno izleganje jajčec</t>
+  </si>
+  <si>
     <t>Kumulativ eggklekking</t>
   </si>
   <si>
     <t>Kumulativ äggkläckning</t>
   </si>
   <si>
+    <t>Éclosion cumulée des œufs</t>
+  </si>
+  <si>
     <t>Schiusa cumulativa delle uova</t>
   </si>
   <si>
+    <t>Αθροιστική εκκόλαψη αυγών</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.chart_heading</t>
   </si>
   <si>
@@ -651,15 +905,24 @@
     <t>Gemeine Narzissenschwebfliege</t>
   </si>
   <si>
+    <t>Miha trepetavka</t>
+  </si>
+  <si>
     <t>Vanlig narsissflue</t>
   </si>
   <si>
     <t>Bred narscissblomfluga</t>
   </si>
   <si>
+    <t>Mouche du Narcisse</t>
+  </si>
+  <si>
     <t>Mosca narciso grande</t>
   </si>
   <si>
+    <t>Μεγάλη μύγα Νάρκισσος</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.result_parameters.Cumulative_Egg_Hatching.description</t>
   </si>
   <si>
@@ -672,12 +935,21 @@
     <t>Kumulative Eiablage der Gemeinen Narzissenschwebfliege</t>
   </si>
   <si>
+    <t>Kumulativno izleganje jajčec muhe trepetavke</t>
+  </si>
+  <si>
     <t>Kumulativ eggklekking hos vanlig narsissflue</t>
   </si>
   <si>
+    <t>Éclosion cumulative des œufs de la mouche du Narcisse</t>
+  </si>
+  <si>
     <t>Schiusa cumulativa delle uova della mosca narciso grande</t>
   </si>
   <si>
+    <t>Αθροιστική εκκόλαψη αυγών της μεγάλης μύγας Narcissus</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.result_parameters.Cumulative_Egg_Hatching.title</t>
   </si>
   <si>
@@ -693,15 +965,27 @@
     <t>Kumulativ æglægning af Stor Narcisflue</t>
   </si>
   <si>
+    <t>Kumulativno odlaganje jajčec muhe trepetavke</t>
+  </si>
+  <si>
     <t>Kumulativ egglegging hos vanlig narsissflue</t>
   </si>
   <si>
+    <t>Ponte cumulée de la mouche du narcisse</t>
+  </si>
+  <si>
     <t>Deposizione cumulativa delle uova della mosca narciso grande</t>
   </si>
   <si>
+    <t>Σωρευτική ωοτοκία της μεγάλης μύγας Narcissus</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.result_parameters.Cumulative_Egg_Laying.title</t>
   </si>
   <si>
+    <t>Kumulativno odlaganje jajc</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.result_parameters.Cumulative_Emergence.description</t>
   </si>
   <si>
@@ -714,18 +998,30 @@
     <t>Kumulatives Auftauchen der Gemeinen Narzissenschwebfliege</t>
   </si>
   <si>
+    <t>Kumulativni pojav muhe trepetavke</t>
+  </si>
+  <si>
     <t>Kumulativ forekomst av vanlig narsissflue</t>
   </si>
   <si>
     <t>Kumulativ förekomst av bred narcissblomfluga</t>
   </si>
   <si>
+    <t>Émergence cumulative de la mouche du Narcisse</t>
+  </si>
+  <si>
     <t>Emersione cumulativa della mosca del narciso grande</t>
   </si>
   <si>
+    <t>Σωρευτική εμφάνιση της μεγάλης μύγας Narcissus</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.result_parameters.Cumulative_Emergence.title</t>
   </si>
   <si>
+    <t>Kumulativni vznik</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.result_parameters.High_Risk_Threshold.description</t>
   </si>
   <si>
@@ -813,9 +1109,15 @@
     <t>Risken för 1) förekomst, 2) ägglägging och/eller 3) äggkläckning, är låg. Fortsätt övervaka risken.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le risque 1) d'émergence, 2) d'éclosion des œufs et/ou 3) de ponte, est faible.  Continuer la surveillance du risque. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Il rischio di 1) emergenza, 2) schiusa delle uova e/o 3) deposizione delle uova è basso.  Continuare a rivedere il rischio.  </t>
   </si>
   <si>
+    <t>Ο κίνδυνος 1) εμφάνισης, 2) εκκόλαψης αυγών ή/και 3) ωοτοκίας είναι χαμηλός.  Συνεχίστε να επανεξετάζετε τον κίνδυνο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.warning_status_interpretation.3.explanation</t>
   </si>
   <si>
@@ -837,15 +1139,24 @@
     <t xml:space="preserve">Das Risiko des 1) Auftretens, 2) der Eiablage und/oder 3) des Eischlupfs nimmt zu. Verstärkung der Überwachung in gefährdeten Kulturen. Ein mittleres Risiko ist gegeben, wenn einer der folgenden Werte erreicht wird: 1) bis zu 10 % kumulativer Aufgang, 2) bis zu 10 % kumulative Eiablage und/oder 3) bis zu 10 % kumulativer Schlupf von Eiern. Um die Ursache des Risikos zu ermitteln, sehen Sie sich bitte die beigefügten Diagramme an, die zeigen, wann ein Schwellenwert überschritten wurde. </t>
   </si>
   <si>
+    <t>Tveganje 1) pojava, 2) odlaganja jajčec in/ali 3) izleganja jajčec se povečuje. Pozorneje spremljajte prisotnost muhe trepetavke na dovzetnih posevkih. Srednje tveganje je navedeno, če je dosežen kateri koli od naslednjih dejavnikov: 1) do 10 % kumulativnega pojava, 2) do 10 % kumulativnega odlaganja jajčec in/ali 3) do 10 % kumulativnega izleganja jajc. Da bi ugotovili vzrok tveganja, si oglejte priložene grafe, ki ponazarjajo, kdaj je bil prag presežen.</t>
+  </si>
+  <si>
     <t>Risikoen for 1) forekomst, 2) egglegging og/eller 3) eggklekking er økende. Øk overvåkingen av sårbare avlinger. En medium risiko oppstår når en av følgende inntreffer; 1) opp til 10 % kumulativ forekomst, 2) opp til 10 % kumulativ egglegging og/eller 3) opp til 10 % kumulativ eggklekking. Se de vedlagte figurene som viser hvilken faktor som har resultert i medium risiko.</t>
   </si>
   <si>
     <t>Risken för 1) förekomst, 2) ägglägging och/eller 3 äggkläckning är ökande. Utöka övervakninghen i känsliga grödor. Modellen indikerar en måttlig risk när ett av det följande uppnås för en av generationerna; 1) upp till 10 % kumulativ förekomst, 2) upp til 10 % kumulativ ägglägging och/eller 3) upp till 10% kumulativ äggkläckning. För att fastställa orsaken till risken, se de medföljande figurerna, som illustrerar när ett tröskelvärde har överskridits.</t>
   </si>
   <si>
+    <t>Le risque 1) d'émergence, 2) de ponte et/ou 3) d'éclosion des œufs, est en augmentation. Augmentez les efforts de surveillance dans les cultures vulnérables. Un risque moyen est indiqué lorsque l'un des seuils suivants est atteint : 1) jusqu'à 10 % d'émergence cumulée, 2) jusqu'à 10 % de ponte cumulée et/ou 3) jusqu'à 10 % d'éclosion d'œufs cumulée.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Il rischio di 1) emergenza, 2) deposizione delle uova e/o 3) schiusa delle uova è in aumento. Aumentare gli sforzi di monitoraggio nelle colture vulnerabili. Il rischio medio è indicato quando si raggiunge uno dei seguenti valori: 1) fino al 10% di emergenza cumulativa, 2) fino al 10% di deposizione cumulativa di uova e/o 3) fino al 10% di schiusa cumulativa di uova. Per determinare la causa del rischio, consultare i grafici allegati, che illustrano il superamento di una soglia. </t>
   </si>
   <si>
+    <t>Ο κίνδυνος 1) εμφάνισης, 2) ωοτοκίας ή/και 3) εκκόλαψης αυγών αυξάνεται. Αύξηση των προσπαθειών παρακολούθησης σε ευάλωτες καλλιέργειες. Ο μέσος κίνδυνος υποδεικνύεται όταν επιτυγχάνεται οποιοδήποτε από τα ακόλουθα: 1) έως 10% αθροιστικά εμφάνιση, 2) έως 10% αθροιστικά ωοτοκία ή/και 3) έως 10% αθροιστικά εκκόλαψη αυγών. Για να προσδιορίσετε την αιτία του κινδύνου, ανατρέξτε στα συνοδευτικά διαγράμματα, τα οποία απεικονίζουν πότε έχει ξεπεραστεί ένα όριο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.output.warning_status_interpretation.4.explanation</t>
   </si>
   <si>
@@ -867,15 +1178,24 @@
     <t>Das Risiko 1) des Auftretens, 2) des Schlüpfens von Eiern und/oder 3) der Eiablage ist hoch. Ein hohes Risiko ist gegeben, wenn eine der folgenden Bedingungen erfüllt ist: 1) 10-50% kumulativer Aufgang, 10-50% kumulative Eiablage und/oder 10-50% kumulativer Schlupf von Eiern.  Um die Ursache des Risikos zu ermitteln, sehen Sie sich bitte die beigefügten Diagramme an, die zeigen, wann ein Schwellenwert überschritten wurde.</t>
   </si>
   <si>
+    <t>Tveganje za 1) pojav, 2) odlaganja jajčec in/ali 3) izleganja jajčec je veliko. Pozorno spremljajte prisotnost muhe trepetavke na dovzetnih posevkih. Visoko tveganje se pokaže, če je dosežen kateri koli od naslednjih dejavnikov: 1) 10-50 % kumulativnega pojava, 10-50 % kumulativnega odlaganja jajčec in/ali 10-50 % kumulativnega izleganja jajčec.  Da bi ugotovili vzrok tveganja, si oglejte priložene grafe, ki prikazujejo, kdaj je bil prag presežen.</t>
+  </si>
+  <si>
     <t>Risikoen for 1) forekomst, 2) egglegging og/eller 3) eggklekking er høy. Overvåking sårbare avlinger etter skadegjører-aktivitet. En høy risiko oppstår når en av følgende inntreffer; 1) 10 – 50  % kumulativ forekomst, 2) 10 - 50 % kumulativ egglegging og/eller 3) 10 - 50 % kumulativ eggklekking. Se de vedlagte figurene som viser hvilken faktor som har resultert i medium risiko.</t>
   </si>
   <si>
     <t>Risken för 1) förekomst, 2) ägglägging och/eller 3 äggkläckning är hög. Utöka övervakninghen i känsliga grödor. Modellen indikerar en måttlig risk när ett av det följande uppnås för en av generationerna; 1) 10 - 50% kumulativ förekomst, 2) 10 - 50% kumulativ ägglägging och/eller 3) 10 - 50% kumulativ äggkläckning. För att fastställa orsaken till risken, se de medföljande figurerna, som illustrerar när ett tröskelvärde har överskridits.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le risque 1) d'émergence, 2) d'éclosion des œufs et/ou 3) de ponte, est élevé. Le risque est élevé lorsque l'un des seuils suivants est atteint : 1) 10-50 % d'émergence cumulée, 10-50 % de ponte cumulée et/ou 10-50 % d'éclosion d'œufs cumulée. </t>
+  </si>
+  <si>
     <t>Il rischio di 1) emergenza, 2) schiusa delle uova e/o 3) deposizione delle uova è alto. Il rischio elevato è indicato quando si raggiunge uno dei seguenti valori: 1) 10-50% di emergenza cumulativa, 10-50% di deposizione cumulativa di uova e/o 10-50% di schiusa cumulativa di uova.  Per determinare la causa del rischio, consultare i grafici allegati, che illustrano il superamento di una soglia.</t>
   </si>
   <si>
+    <t>Ο κίνδυνος 1) εμφάνισης, 2) εκκόλαψης αυγών ή/και 3) ωοτοκίας είναι υψηλός. Παρακολουθήστε τις ευάλωτες καλλιέργειες για δραστηριότητα στο χωράφι. υψηλός κίνδυνος υποδεικνύεται όταν επιτυγχάνεται οποιοδήποτε από τα ακόλουθα: 1) 10-50% αθροιστική εμφάνιση, 10-50% αθροιστική ωοτοκία ή/και 10-50% αθροιστική εκκόλαψη αυγών.  Για να προσδιορίσετε την αιτία του κινδύνου, ανατρέξτε στα συνοδευτικά διαγράμματα, τα οποία απεικονίζουν πότε έχει ξεπεραστεί ένα όριο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.LAMTEQ.purpose</t>
   </si>
   <si>
@@ -888,13 +1208,22 @@
     <t>Schätzt den Zeitpunkt der Aktivität der Gemeinen Narzissenschwebfliege</t>
   </si>
   <si>
+    <t>Ocenjuje čas aktivnosti muhe trepetavke</t>
+  </si>
+  <si>
     <t>Forutsier tidspunktet for aktivitet av vanlig narsissflue</t>
   </si>
   <si>
     <t>Förutsäger tidpunkten för aktivitet hos bred narcissblomfluga</t>
   </si>
   <si>
+    <t>Estime le moment de l'activité de la mouche du Narcisse</t>
+  </si>
+  <si>
     <t>Stima del momento in cui si verifica l'attività della mosca del narciso grande</t>
+  </si>
+  <si>
+    <t>Εκτιμά τη χρονική στιγμή της δραστηριότητας του Large Narcissus Fly</t>
   </si>
   <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.description</t>
@@ -925,6 +1254,38 @@
 REGION: Dieses EHS wurde aus Arbeiten im Vereinigten Königreich übernommen.
 ANNAHME: Das Startdatum für das Modell ist der 1. Februar, da dies oft die kälteste Zeit des Jahres ist.
 REFERENZEN: Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).  Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342.</t>
+  </si>
+  <si>
+    <r>
+      <t>ŠKODLJIV ORGANIZEM: Odrasli repičarji (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Meligethes aeneus/Brassicogethes aeneus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>) prezimijo v tleh. Hrošči postanejo aktivni zgodaj spomladi in približno mesec dni pozneje priletijo na cvetoče posevke kapusnic, kjer se hranijo s popki in cvetovi. Med prehranjevanjem samice v osnove neodprtih cvetnih brstov izdolbejo luknje in v vsako luknjo odložijo jajčeca. Po izvalitvi se ličinke najprej hranijo s cvetnim prahom, pozneje pa z neodprtimi cvetovi in nazadnje z novo oblikovanimi semenskimi stroki. Odrasle ličinke padejo na tla, kjer se zabubijo. Odrasli (poletni) hrošči se izležejo 2-3 tedne pozneje in večina jih migrira, da bi se hranili na drugih rastlinah, vključno s cvetovi cvetače, preden se preselijo na prezimovališča. Repičarji imajo en rod na leto.
+ODLOČITEV: Model predvideva čas spomladanskega pojava odraslih hroščev, odlaganje jajčec in nato pojav nove (poletne) generacije odraslih hroščev, ki so pripravljeni na migracijo.  To uporabnikom omogoča izvajanje ciljno usmerjenega spremljanja in/ali blažilnih ukrepov za zmanjšanje tveganja škode na pridelku.
+MODEL: Osnova simulacijskega modela je serija enačb stopnje razvoja, ki so povezane v program.   Model simulira razvoj skupine 500 osebkov, ki se razvijejo do pojava odraslih osebkov, odlaganja jajčec in izleganja. Za vsako stopnjo se vsak dan izračuna odstotek razvoja z integracijo ustrezne krivulje stadija razvoja. Ta odstotek se kopiči po dnevih, dokler ne doseže vrednosti 100. Na tej točki posameznik preide v naslednji stadij. Variabilnost znotraj populacije žuželk je vključena s predpostavko, da so v vsakem trenutku stadija razvoja populacije, ki je na konstantni temperaturi, normalno porazdeljene (Phelps et al, 1993).  Model uporablja temperaturo tal ali zraka, odvisno od stadija razvoja. V modelu je mogoče določiti deleže zgodnjih in poznih biotipov v simulirani populaciji. Ker več skupin napreduje hkrati, se lahko pojavljanje odraslih osebkov in odlaganje jajčec zgodita istočasno.
+PARAMETRI: Za napoved repičarja so potrebne urne temperature tal na globini približno 6 cm in urne temperature zraka.
+REGIJA: Ta DSS je bil prilagojen na podlagi dela, opravljenega v Združenem Kraljestvu.
+PREDPOSTAVKE: Začetni datum za model je 1. februar, saj je to pogosto najhladnejše obdobje v letu.
+LITERATURA: Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).  Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SKADEGJØREREN: Rapsglansbille (Meligethes aeneus/Brassicogethes aeneus) overvintrer i jorda. Billene blir aktive tidlig på våren og flyr til blomstrende kål-avlinger omtrent en måned senere, hvor de lever av knopper og blomster. Når de spiser tygger hunnene hull i bunnen av uåpnede blomsterknopper og legger egg i hvert hull. Etter klekking lever larvene først av pollen, og senere av uåpnede blomster og til slutt av nydannede frøbelger. De fullvoksne larvene faller ned i jorden der de forpupper seg. Voksne individer dukker opp 2-3 uker senere, på sommeren, og de fleste sprer seg for å livnære seg på andre planter, inkludert blomkål, før de flytter til overvintringssteder. Billene gjennomgår bare én generasjon hvert år.
@@ -950,6 +1311,15 @@
 </t>
   </si>
   <si>
+    <t>LE RAVAGEUR : Les méligètes adultes (Meligethes aeneus/Brassicogethes aeneus) hivernent dans le sol. Les coléoptères deviennent actifs au début du printemps et volent vers les cultures de brassicacées en fleur environ un mois plus tard, où ils se nourrissent des bourgeons et des fleurs.  Pendant qu'elles se nourrissent, les femelles font des trous dans la base des boutons floraux non ouverts et pondent des œufs dans chaque trou. Après l'éclosion, les larves se nourrissent d'abord de pollen, puis de fleurs non ouvertes et enfin de gousses nouvellement formées.  Les larves complètement développées tombent au sol où elles se transforment en chrysalides.  Les coléoptères adultes (d'été) émergent 2 à 3 semaines plus tard et la majorité d'entre eux se dispersent pour se nourrir d'autres plantes, y compris les fleurs des cultures de chou-fleur, avant de se déplacer vers les sites d'hivernage. Il n'y a qu'une seule génération par an.
+ LA DÉCISION : Ce modèle prévoit le moment de l'émergence des coléoptères adultes au printemps, la ponte des œufs, puis l'émergence d'une nouvelle génération (été) d'adultes prêts à se disperser, suivie de leur dispersion.  Cela permet aux utilisateurs d'entreprendre une surveillance ciblée et/ou des actions d'atténuation pour réduire le risque de dommages à la culture.
+LE MODÈLE : Une série d'équations de taux de développement forment la base du modèle de simulation. Le modèle simule le développement de cohortes de 500 individus à travers l'émergence printanière, la ponte et l'éclosion des œufs, le développement et l'émergence des larves et des pupes, puis la dispersion de la nouvelle génération de coléoptères adultes. Pour chaque stade, le pourcentage de développement est calculé chaque jour en intégrant la courbe de taux de développement appropriée. Ce pourcentage est accumulé au fil des jours jusqu'à ce qu'il atteigne 100. À ce stade, l'individu passe au stade suivant. La variabilité au sein de la population d'insectes est incorporée en supposant que, à tout instant, les taux de développement d'une population maintenue à une température constante sont distribués selon une loi normale (Phelps et al, 1993).  Le modèle utilise les températures du sol ou de l'air en fonction du stade de développement. Comme plusieurs cohortes progressent simultanément, l'émergence/dispersion des adultes et la ponte des œufs peuvent se produire en même temps. 
+LES PARAMÈTRES : La prévision du développement des méligètes nécessite des températures horaires du sol à une profondeur d'environ 6 cm et des températures horaires de l'air. 
+RÉGION : cet OAD a été adapté à partir de travaux réalisés au Royaume-Uni 
+ASSUMPTION : la date de début du modèle est le 1er février, car c'est souvent la période la plus froide de l'année.
+RÉFÉRENCE : Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).  Méthode de simulation de Monte Carlo pour prévoir le moment des attaques d'insectes nuisibles.  Crop Protection 12, 335-342.</t>
+  </si>
+  <si>
     <t>"Il parassita: i coleotteri adulti del polline (Meligethes aeneus/Brassicogethes aeneus) svernano nel terreno.   I coleotteri diventano attivi all'inizio della primavera e volano verso le colture di brassica in fiore circa un mese dopo, dove si nutrono di boccioli e fiori.  Durante l'alimentazione, le femmine fanno dei fori alla base dei boccioli non aperti e depongono le uova in ogni foro.   Dopo la schiusa, le larve si nutrono inizialmente di polline, poi di fiori non aperti e infine di baccelli di semi appena formati.  Le larve completamente cresciute cadono nel terreno dove si impupano.  I coleotteri adulti (estivi) emergono 2-3 settimane dopo e la maggior parte si disperde per nutrirsi di altre piante, compresi i fiori delle colture di cavolfiore, prima di trasferirsi nei siti di svernamento.   Ogni anno si verifica una sola generazione.
 LA DECISIONE: Questo modello prevede i tempi di comparsa degli adulti in primavera, la deposizione delle uova e quindi la comparsa di una nuova generazione (estiva) di adulti pronti a disperdersi, seguita dalla loro dispersione.  Ciò consente agli utenti di intraprendere un monitoraggio mirato e/o azioni di mitigazione per ridurre il rischio di danni alle colture.
 IL MODELLO: Una serie di equazioni sul tasso di sviluppo costituiscono la base del modello di simulazione e sono collegate tra loro in un programma.   Il modello simula lo sviluppo di coorti di 500 individui attraverso l'emergenza primaverile, la deposizione delle uova e la schiusa, lo sviluppo larvale e pupale e l'emergenza, seguita dalla dispersione della nuova generazione di coleotteri adulti. Per ogni stadio, la percentuale di sviluppo viene calcolata ogni giorno integrando la curva di sviluppo appropriata. Questa percentuale viene accumulata nel corso dei giorni fino a raggiungere il valore 100. A questo punto l'individuo passa allo stadio successivo. La variabilità all'interno della popolazione di insetti è incorporata assumendo che, in qualsiasi istante, i tassi di sviluppo di una popolazione mantenuta a temperatura costante siano normalmente distribuiti (Phelps et al, 1993).  Il modello utilizza le temperature del suolo o dell'aria a seconda dello stadio di sviluppo. Poiché più coorti progrediscono simultaneamente, l'emergenza/dispersione degli adulti e la deposizione delle uova possono avvenire contemporaneamente.
@@ -959,6 +1329,14 @@
 RIFERIMENTO: Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).  Metodo di simulazione Monte Carlo per la previsione dei tempi di attacco degli insetti nocivi.  Crop Protection 12, 335-342".</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ο Εχθρός: Τα ενήλικα σκαθάρια γύρης (Meligethes aeneus/Brassicogethes aeneus) διαχειμάζουν στο έδαφος.   Τα σκαθάρια δραστηριοποιούνται νωρίς την άνοιξη και πετούν στις ανθισμένες καλλιέργειες ορείχαλκου περίπου ένα μήνα αργότερα, όπου τρέφονται με τους οφθαλμούς και τα άνθη.  Κατά τη διάρκεια της διατροφής, τα θηλυκά τρυπούν τις βάσεις των μη ανοιγμένων μπουμπουκιών των ανθέων και γεννούν αυγά σε κάθε τρύπα.   Μετά την εκκόλαψη, οι προνύμφες τρέφονται αρχικά με γύρη αλλά αργότερα τρέφονται με μη ανοιγμένα άνθη και τέλος με νεοσχηματισμένους λοβούς σπόρων.  Οι πλήρως αναπτυγμένες προνύμφες πέφτουν στο έδαφος όπου και νυμφώνονται.  Τα ενήλικα (θερινά) σκαθάρια εμφανίζονται 2-3 εβδομάδες αργότερα και η πλειονότητα διασκορπίζεται για να τραφεί σε άλλα φυτά, συμπεριλαμβανομένων των ανθών των καλλιεργειών κουνουπιδιού, πριν μετακινηθεί σε περιοχές διαχείμασης.   Υπάρχει μόνο μία γενιά κάθε χρόνο.
+Η ΑΠΟΦΑΣΗ: Το μοντέλο αυτό προβλέπει το χρόνο εμφάνισης των ενήλικων σκαθαριών την άνοιξη, την ωοτοκία και στη συνέχεια την εμφάνιση μιας νέας (θερινής) γενιάς ενηλίκων έτοιμων να διασκορπιστούν, ακολουθούμενη από τη διασπορά τους.  Αυτό δίνει τη δυνατότητα στους χρήστες να αναλάβουν στοχευμένη παρακολούθηση ή/και ενέργειες μετριασμού για τη μείωση του κινδύνου ζημιών στην καλλιέργεια.
+ΤΟ ΜΟΝΤΕΛΟ: Μια σειρά εξισώσεων ρυθμού ανάπτυξης αποτελούν τη βάση του μοντέλου προσομοίωσης και συνδέονται μεταξύ τους σε ένα πρόγραμμα.   Το μοντέλο προσομοιώνει την ανάπτυξη των κοόρτων των 500 ατόμων μέσω της εαρινής εμφάνισης, της ωοτοκίας και της εκκόλαψης, της ανάπτυξης και της εμφάνισης των προνυμφών και των κουκουλιών, ακολουθούμενη από τη διασπορά της νέας γενιάς ενήλικων σκαθαριών. Για κάθε στάδιο, το ποσοστό ανάπτυξης υπολογίζεται κάθε μέρα με την ενσωμάτωση της κατάλληλης καμπύλης ρυθμού ανάπτυξης. Το ποσοστό αυτό συσσωρεύεται με την πάροδο των ημερών μέχρι να φθάσει το 100. Στο σημείο αυτό το άτομο μεταβαίνει στο επόμενο στάδιο. Η μεταβλητότητα εντός του πληθυσμού των εντόμων ενσωματώνεται με την παραδοχή ότι, σε κάθε στιγμή, οι ρυθμοί ανάπτυξης ενός πληθυσμού που διατηρείται σε σταθερή θερμοκρασία κατανέμονται κανονικά (Phelps et al, 1993).  Το μοντέλο χρησιμοποιεί θερμοκρασίες εδάφους ή αέρα ανάλογα με το στάδιο ανάπτυξης. Καθώς πολλές κοόρτες εξελίσσονται ταυτόχρονα, η εμφάνιση/διασπορά ενηλίκων και η ωοτοκία μπορούν να συμβούν ταυτόχρονα.
+ΟΙ ΠΑΡΑΜΕΤΡΟΙ: Η πρόβλεψη του σκαθαριού γύρης απαιτεί ωριαίες θερμοκρασίες εδάφους σε βάθος περίπου 6 cm και ωριαίες θερμοκρασίες αέρα.
+ΠΕΡΙΟΧΗ: Αυτό το DSS προσαρμόστηκε από εργασίες που πραγματοποιήθηκαν στο Ηνωμένο Βασίλειο.
+ΥΠΟΘΕΣΗ: Η ημερομηνία έναρξης του μοντέλου είναι η 1η Φεβρουαρίου, καθώς αυτή είναι συχνά η ψυχρότερη περίοδος του έτους. REFERENCE: Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).  Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342."</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.name</t>
   </si>
   <si>
@@ -971,6 +1349,9 @@
     <t>Rapsglanzkäfer</t>
   </si>
   <si>
+    <t>Repičar</t>
+  </si>
+  <si>
     <t>Rapsglansbille</t>
   </si>
   <si>
@@ -980,9 +1361,15 @@
     <t>Rapsikuoriainen</t>
   </si>
   <si>
+    <t>Méligète</t>
+  </si>
+  <si>
     <t>Coleottero del polline</t>
   </si>
   <si>
+    <t>Σκαθάρι γύρης</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.chart_groups.G1.title</t>
   </si>
   <si>
@@ -998,6 +1385,9 @@
     <t>Kumulative Adulte</t>
   </si>
   <si>
+    <t>Kumulativni odrasli osebki</t>
+  </si>
+  <si>
     <t>Kumulativt voksne individ</t>
   </si>
   <si>
@@ -1007,9 +1397,15 @@
     <t>Kumulatiiviset aikuiset</t>
   </si>
   <si>
+    <t>Adultes cumulés</t>
+  </si>
+  <si>
     <t>Adulti cumulativi</t>
   </si>
   <si>
+    <t>Αθροιστικοί ενήλικες</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.chart_groups.G3.title</t>
   </si>
   <si>
@@ -1022,6 +1418,9 @@
     <t>Kumulative Abwanderung</t>
   </si>
   <si>
+    <t>Kumulativna migracija</t>
+  </si>
+  <si>
     <t>Kumulativ spredning</t>
   </si>
   <si>
@@ -1031,9 +1430,15 @@
     <t>Kumulatiivinen migraatio</t>
   </si>
   <si>
+    <t>Migration cumulée</t>
+  </si>
+  <si>
     <t>Migrazione cumulativa</t>
   </si>
   <si>
+    <t>Σωρευτική μετανάστευση</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.chart_heading</t>
   </si>
   <si>
@@ -1052,6 +1457,9 @@
     <t>Kumulative adulte Rapsglanzkäfer</t>
   </si>
   <si>
+    <t>Kumulativni odrasli osebki repičarja</t>
+  </si>
+  <si>
     <t>Kumulativt voksne individ av rapsglansbille</t>
   </si>
   <si>
@@ -1061,9 +1469,15 @@
     <t>Rapsikuoriaisen kumulatiiviset aikuiset</t>
   </si>
   <si>
+    <t>Adultes de méligète cumulés</t>
+  </si>
+  <si>
     <t>Adulti cumulativi dello scarabeo del polline</t>
   </si>
   <si>
+    <t>Αθροιστικά ενήλικα σκαθάρια γύρης</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.result_parameters.Cumulative_Adults.title</t>
   </si>
   <si>
@@ -1076,6 +1490,9 @@
     <t>Kumulative Adulte, die bereit sind zu wandern</t>
   </si>
   <si>
+    <t>Kumulativni odrasli osebki, pripravljeni na migracijo</t>
+  </si>
+  <si>
     <t>Kumulativt voksne individ som er klare til å spre seg</t>
   </si>
   <si>
@@ -1085,9 +1502,15 @@
     <t>Kumulatiiviset aikuiset, jotka ovat valmiita migraatioon</t>
   </si>
   <si>
+    <t>Nombre cumulé d'adultes prêts à migrer</t>
+  </si>
+  <si>
     <t>Adulti cumulativi pronti a migrare</t>
   </si>
   <si>
+    <t>Αθροιστικά ενήλικες έτοιμοι να μεταναστεύσουν</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.result_parameters.Cumulative_Emergence.description</t>
   </si>
   <si>
@@ -1097,9 +1520,15 @@
     <t>Kumulatives Auftauchen des Pollenflugkäfers</t>
   </si>
   <si>
+    <t>Kumulativna migracija repičarja</t>
+  </si>
+  <si>
     <t>Rapsikuoriaisen kumulatiivinen esiintyminen</t>
   </si>
   <si>
+    <t>Emergence cumulative du méligète</t>
+  </si>
+  <si>
     <t>Emersione cumulativa dello scarabeo del polline</t>
   </si>
   <si>
@@ -1109,6 +1538,9 @@
     <t>Kumulative Emergenz</t>
   </si>
   <si>
+    <t>Σωρευτική ανάδυση</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.result_parameters.Cumulative_Migration.description</t>
   </si>
   <si>
@@ -1130,9 +1562,15 @@
     <t>Rapsikuoriaisen kumulatiivinen migraatio</t>
   </si>
   <si>
+    <t>Migration cumulative du méligète</t>
+  </si>
+  <si>
     <t>Migrazione cumulativa dello scarabeo del polline</t>
   </si>
   <si>
+    <t>Σωρευτική μετανάστευση του σκαθαριού γύρης</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.result_parameters.Cumulative_Migration.title</t>
   </si>
   <si>
@@ -1145,6 +1583,9 @@
     <t xml:space="preserve">Kumulativ spredning </t>
   </si>
   <si>
+    <t>Migrations cumulées</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.result_parameters.High_Risk_Threshold.description</t>
   </si>
   <si>
@@ -1181,12 +1622,18 @@
     <t>WarwickHRI.0_0_1.models.MELIAE.output.warning_status_interpretation.1.recommended_action</t>
   </si>
   <si>
+    <t>Consulter le message d'erreur.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.warning_status_interpretation.2.explanation</t>
   </si>
   <si>
     <t>Dieses Modell sammelt Daten für die Ausführung. Auf der Grundlage der verfügbaren Daten deuten die Modellergebnisse darauf hin, dass derzeit kein Risiko einer Schädlingsaktivität besteht.</t>
   </si>
   <si>
+    <t>Ta model zbira podatke za zagon. Na podlagi razpoložljivih podatkov rezultati modela kažejo, da trenutno ni tveganja za aktivnost škodljivcev.</t>
+  </si>
+  <si>
     <t>Modellen samler data for å kjøre. Basert på tilgjengelige data indikerer ikke modellen en risikoen for skadegjører-aktivitet.</t>
   </si>
   <si>
@@ -1211,6 +1658,9 @@
     <t xml:space="preserve">Das Risiko 1) des Auftretens überwinterter Käfer im Frühjahr, 2) des Auftretens von ausbreitungsbereiten Sommeradulten oder 3) der Ausbreitung von Sommeradulten ist gering.  Das Risiko sollte weiterhin überprüft werden.   </t>
   </si>
   <si>
+    <t xml:space="preserve">Tveganje 1) spomladanskega pojava prezimujočih hroščev, 2) pojava poletnih odraslih hroščev, pripravljenih na migracijo, ali 3) migracijo poletnih odraslih hroščev je nizko. Redno preverjajte stopnjo tveganja. </t>
+  </si>
+  <si>
     <t>Risikoen for 1) forekomst av overvintrede biller om våren, 2) forekomst av voksne biller på sommeren som kan spre seg , eller 3) spredning av biller på sommeren, er lav. Fortsett å overvåke risikoen.</t>
   </si>
   <si>
@@ -1220,15 +1670,24 @@
     <t>Riski 1) talvehtineiden rapsikuoriaisten kevään ilmaantumisesta, 2) leviämisvalmiiden kesäaikuisten ilmaantumisesta tai 3) kesäaikuisten leviämisestä on pieni. Jatka riskien tarkastelua.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le risque 1) d'émergence au printemps de coléoptères ayant hiverné, 2) d'émergence d'adultes d'été prêts à se disperser, ou 3) de dispersion d'adultes d'été, est faible.  Continuer à surveiller ce risque.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Il rischio di 1) comparsa in primavera di coleotteri svernati, 2) comparsa di adulti estivi pronti a disperdersi o 3) dispersione di adulti estivi è basso.  Continuare a rivedere il rischio.    </t>
   </si>
   <si>
+    <t>Ο κίνδυνος 1) εαρινής εμφάνισης σκαθαριών που διαχειμάζουν, 2) εμφάνισης ενήλικων ατόμων του καλοκαιριού έτοιμων να διασκορπιστούν ή 3) διασποράς ενήλικων ατόμων του καλοκαιριού, είναι χαμηλός.  Συνεχίστε να επανεξετάζετε τον κίνδυνο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.warning_status_interpretation.3.explanation</t>
   </si>
   <si>
     <t xml:space="preserve">Dieses Modell läuft von Februar bis Dezember. Auf der Grundlage der derzeit verfügbaren Daten prognostiziert das Modell ein mittleres Risiko. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ta model deluje od februarja do decembra. Na podlagi trenutno razpoložljivih podatkov model napoveduje srednje tveganje. </t>
+  </si>
+  <si>
     <t>Questo modello funziona da febbraio a dicembre. Sulla base dei dati attualmente disponibili, il modello prevede un rischio medio.</t>
   </si>
   <si>
@@ -1244,6 +1703,9 @@
     <t>Das Risiko 1) des Auftretens überwinterter Käfer im Frühjahr, 2) des Auftretens adulter Sommerkäfer, die zur Ausbreitung bereit sind, und/oder 3) der Ausbreitung adulter Sommerkäfer nimmt zu. Verstärkte Überwachung in gefährdeten Kulturen. Ein mittleres Risiko ist gegeben, wenn eine der folgenden Bedingungen erfüllt ist: 1) bis zu 10 % kumulatives Auftreten von erwachsenen Käfern im Frühjahr, 2) bis zu 10 % kumulatives Auftreten von ausbreitungsbereiten erwachsenen Sommerkäfern und/oder 3) bis zu 10 % kumulative Ausbreitung von erwachsenen Sommerkäfern.  Um die Ursache des Risikos zu bestimmen, sehen Sie sich bitte die beigefügten Diagramme an, aus denen hervorgeht, wann ein Schwellenwert überschritten wurde.</t>
   </si>
   <si>
+    <t>Tveganje 1) spomladanskega pojava prezimujočih hroščev, 2) pojava poletnih odraslih hroščev, pripravljenih na migracijo, in/ali 3) migracije poletnih odraslih hroščev se povečuje. Pozorneje spremljajte prisotnost  repičarja na dovzetnih posevkih. Srednje tveganje se pokaže, če je dosežen kateri koli od naslednjih dejavnikov: 1) do 10 % kumulativnega spomladanskega pojava odraslih osebkov, 2) do 10 % kumulativnega pojava poletnih odraslih osebkov, ki so pripravljeni na migracijo, in/ali 3) do 10 % kumulativne migracije poletnih odraslih osebkov.  Da bi ugotovili vzrok tveganja, si oglejte priložene grafe, ki prikazujejo, kdaj je bil prag presežen.</t>
+  </si>
+  <si>
     <t>Risikoen for 1) forekomst av overvintrede biller om våren, 2) forekomst av voksne biller på sommeren som kan spre seg, eller 3) spredning av biller på sommeren, er økende. Øk overvåkingen av sårbare avlinger. Modellen indikerer en medium risiko når et av følgende oppnås; 1) opp til 10 % kumulativ forekomst av overvintrede biller om våren, 2) opp til 10 % kumulativ forekomst av voksne biller på sommeren som kan spre seg og/eller 3) opp til 10 % kumulativ spredning av biller på sommeren. Se de vedlagte figurene som viser hvilken faktor som har resultert i medium risiko.</t>
   </si>
   <si>
@@ -1253,9 +1715,15 @@
     <t>Riski 1) talvehtineiden rapsikuoriaisten kevään ilmaantumisesta, 2) leviämisvalmiiden kesäaikuisten ilmaantumisesta ja/tai 3) kesäaikuisten leviämisestä kasvaa. Lisää alttiiden viljelykasvien tarkkailua. Keskitasoinen riski on indikoitu, kun jokin seuraavista saavutetaan; 1) korkeintaan 10 % kumulatiivista aikuisten esiintymistä, 2) jopa 10 % kumulatiivisesta leviämisvalmiista kesäaikuisista ja/tai 3) jopa 10 % kumulatiivinen leviäminen kesäaikuisista. Määrittääksesi riskin syyn, katso oheiset kaaviot, jotka osoittavat, milloin kynnys on ylitetty.</t>
   </si>
   <si>
+    <t>Le risque 1) d'émergence au printemps de coléoptères ayant hiverné, 2) d'émergence d'adultes d'été prêts à se disperser, et/ou 3) de dispersion des adultes d'été, augmente. Augmenter les efforts de surveillance dans les cultures vulnérables. Un risque moyen est indiqué lorsque l'une des situations suivantes est atteinte : 1) jusqu'à 10% d'émergence cumulée d'adultes au printemps, 2) jusqu'à 10% d'émergence cumulée d'adultes d'été prêts à se disperser, et/ou 3) jusqu'à 10% de dispersion cumulée d'adultes d'été.  Pour déterminer la cause du risque, veuillez vous référer aux graphiques, qui illustrent le moment où un seuil a été dépassé.</t>
+  </si>
+  <si>
     <t>Il rischio di 1) comparsa in primavera di coleotteri svernati, 2) comparsa di adulti estivi pronti a disperdersi e/o 3) dispersione di adulti estivi è in aumento. Aumentare gli sforzi di monitoraggio nelle colture vulnerabili. Il rischio medio è indicato quando si raggiunge uno dei seguenti valori: 1) fino al 10% di comparsa cumulativa di adulti in primavera, 2) fino al 10% di comparsa cumulativa di adulti estivi pronti a disperdersi e/o 3) fino al 10% di dispersione cumulativa di adulti estivi.  Per determinare la causa del rischio, consultare i grafici allegati, che illustrano il superamento di una soglia.</t>
   </si>
   <si>
+    <t>Ο κίνδυνος 1) εμφάνισης την άνοιξη των σκαθαριών που διαχειμάζουν, 2) εμφάνισης των ενήλικων σκαθαριών του καλοκαιριού που είναι έτοιμα να διασκορπιστούν, ή/και 3) διασποράς των ενήλικων σκαθαριών του καλοκαιριού, αυξάνεται. Αύξηση των προσπαθειών παρακολούθησης σε ευάλωτες καλλιέργειες. Μέτριος κίνδυνος υποδεικνύεται όταν επιτυγχάνεται οποιοδήποτε από τα ακόλουθα: 1) έως 10% αθροιστικά ανοιξιάτικη εμφάνιση ενηλίκων, 2) έως 10% αθροιστικά εμφάνιση καλοκαιρινών ενηλίκων έτοιμων για διασπορά, ή/και 3) έως 10% αθροιστικά διασπορά καλοκαιρινών ενηλίκων.  Για να προσδιορίσετε την αιτία του κινδύνου, ανατρέξτε στα συνοδευτικά διαγράμματα, τα οποία απεικονίζουν πότε έχει ξεπεραστεί ένα όριο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.output.warning_status_interpretation.4.explanation</t>
   </si>
   <si>
@@ -1271,6 +1739,9 @@
     <t>Das Risiko, dass 1) im Frühjahr überwinternde Käfer auftreten, 2) erwachsene, ausbreitungsbereite Sommerkäfer auftreten und/oder 3) erwachsene Sommerkäfer sich ausbreiten, ist hoch. Überwachen Sie gefährdete Kulturen auf Aktivität im Feld. Ein hohes Risiko ist gegeben, wenn eine der folgenden Bedingungen erfüllt ist: 1) 10-50 % kumulatives Auftreten erwachsener Käfer im Frühjahr, 2) 10-50 % kumulatives Auftreten erwachsener, ausbreitungsbereiter Sommerkäfer und/oder 3) 10-50 % kumulative Ausbreitung erwachsener Sommerkäfer.  Die Ursache des Risikos lässt sich anhand der beigefügten Diagramme ermitteln, die zeigen, wann ein Schwellenwert überschritten wurde.</t>
   </si>
   <si>
+    <t>Tveganje 1) spomladanskega pojava prezimujočih hroščev, 2) pojava poletnih odraslih hroščev, pripravljenih na migracijo, in/ali 3) migracije poletnih odraslih hroščev je veliko.  Pozorno spremljajte prisotnost repičarja na dovzetnih posevkih. Veliko tveganje se kaže, če je doseženo kar koli od naslednjega: 1) 10-50 % kumulativnega spomladanskega pojava odraslih osebkov, 2) 10-50 % kumulativnega pojava poletnih odraslih osebkov, ki so pripravljeni na migracijo, in/ali 3) 10-50 % kumulativnege migracije poletnih odraslih osebkov.  Da bi ugotovili vzrok tveganja, si oglejte priložene grafe, ki prikazujejo, kdaj je bil prag presežen.</t>
+  </si>
+  <si>
     <t>Risikoen for 1) forekomst av overvintrede biller om våren, 2) forekomst av voksne biller på sommeren som kan spre seg, eller 3) spredning av biller på sommeren, er høy. Overvåk sårbare avlinger etter skadegjører-aktivitet. Modellen indikerer en høy risiko når et av følgende oppnås; 1) 10 – 50 % kumulativ forekomst av overvintrede biller om våren, 2) 10 - 50 % kumulativ forekomst av voksne biller på sommeren som kan spre seg og/eller 3) 10 – 50  % kumulativ spredning av biller på sommeren. Se de vedlagte figurene som viser hvilken faktor som har resultert i medium risiko.</t>
   </si>
   <si>
@@ -1280,9 +1751,15 @@
     <t>Riski 1) talvehtineiden kovakuoriaisten kevään ilmaantumisesta, 2) leviämisvalmiiden kesäaikuisten ja/tai 3) kesäaikuisten leviämisestä on suuri. Tarkkaile alttita viljelykasveja pellolla tapahtuvan toiminnan varalta. Korkea riski ilmoitetaan, kun jokin seuraavista saavutetaan; 1) 10-50 % kumulatiivista kevätkasvua aikuisista, 2) 10-50 % kumulatiivinen leviämisvalmiita kesäaikuisia ja/tai 3) 10-50 % kumulatiivisia kesäaikuisia. Määrittääksesi riskin syyn, katso oheiset kaaviot, jotka osoittavat, milloin kynnys on ylitetty.</t>
   </si>
   <si>
+    <t>Le risque 1) d'émergence au printemps de coléoptères ayant hiverné, 2) d'émergence d'adultes d'été prêts à se disperser, et/ou 3) de dispersion des adultes d'été, est élevé. Surveiller les cultures vulnérables pour l'activité au champ. Un risque élevé est indiqué lorsque l'une des situations suivantes est atteinte : 1) 10-50 % d'émergence cumulative d'adultes au printemps, 2) 10-50 % d'émergence cumulative d'adultes d'été prêts à se disperser, et/ou 3) 10-50 % de dispersion cumulative d'adultes d'été.  Pour déterminer la cause du risque, veuillez vous référer aux graphiques, qui illustrent le dépassement d'un seuil.</t>
+  </si>
+  <si>
     <t>Il rischio di 1) comparsa in primavera di coleotteri svernati, 2) comparsa di adulti estivi pronti a disperdersi e/o 3) dispersione di adulti estivi è elevato. Monitorare le colture vulnerabili per verificare l'attività in campo. Il rischio elevato è indicato quando si raggiunge uno dei seguenti valori: 1) 10-50% di comparsa cumulativa di adulti in primavera, 2) 10-50% di comparsa cumulativa di adulti estivi pronti a disperdersi e/o 3) 10-50% di dispersione cumulativa di adulti estivi.  Per determinare la causa del rischio, consultare i grafici allegati, che illustrano il superamento di una soglia.</t>
   </si>
   <si>
+    <t>Ο κίνδυνος 1) εαρινής εμφάνισης σκαθαριών που διαχειμάζουν, 2) εμφάνισης ενήλικων ατόμων του καλοκαιριού έτοιμων να διασκορπιστούν, ή/και 3) διασποράς ενήλικων ατόμων του καλοκαιριού, είναι υψηλός. Παρακολουθήστε τις ευάλωτες καλλιέργειες για δραστηριότητα στον αγρό. Ο υψηλός κίνδυνος υποδεικνύεται όταν επιτυγχάνεται οποιοδήποτε από τα ακόλουθα: 1) 10-50% αθροιστική εαρινή εμφάνιση ενηλίκων, 2) 10-50% αθροιστική εμφάνιση καλοκαιρινών ενηλίκων έτοιμων για διασπορά, ή/και 3) 10-50% αθροιστική διασπορά καλοκαιρινών ενηλίκων.  Για να προσδιορίσετε την αιτία του κινδύνου, ανατρέξτε στα συνοδευτικά διαγράμματα, τα οποία θα απεικονίζουν πότε έχει ξεπεραστεί ένα όριο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.MELIAE.purpose</t>
   </si>
   <si>
@@ -1295,6 +1772,9 @@
     <t>Schätzt den Zeitpunkt der Aktivität des Rapsglanzkäfers</t>
   </si>
   <si>
+    <t>Ocena časa aktivnosti repičarja</t>
+  </si>
+  <si>
     <t>Fortusier tidspunktet for aktivitet av rapsglansbille</t>
   </si>
   <si>
@@ -1304,7 +1784,13 @@
     <t>Arvioi rapsikuoriaisen aktiivisuuden ajoituksen</t>
   </si>
   <si>
+    <t>Estime le moment de l'activité des méligètes.</t>
+  </si>
+  <si>
     <t>Stima dei tempi di attività del coleottero del polline</t>
+  </si>
+  <si>
+    <t>Εκτιμά τη χρονική στιγμή της δραστηριότητας των σκαθαριών γύρης</t>
   </si>
   <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.description</t>
@@ -1338,6 +1824,38 @@
 </t>
   </si>
   <si>
+    <r>
+      <t>ŠKODLJIV ORGANIZEM: Korenjeva muha (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Psila rosae/Chamaepsila rosae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>) prezimi v tleh v stadiju ličinke ali bube.  Pozno razvite žuželke ostanejo kot ličinke in se celo zimo hranijo na koreninah korenja. Žuželke, ki prezimijo kot ličinke, spomladi tvorijo bube.  Odrasle muhe se nato izležejo iz obeh vrst bub. Samice muh odlagajo jajčeca v zemljo blizu korenčkovih rastlin, ličinke pa se po izleganju hranijo s koreninami in se vanje zažrejo ter povzročijo škodo. Te ličinke se zabubijo in iz njih se razvije nova generacija odraslih osebkov. Glede na lokalno podnebje se lahko število generacij korenjeve muhe in njihov časovni potek razlikujeta.  Ko je vreme še posebej vroče, lahko ličinke korenjeve muhe vzletajo.
+ODLOČITEV: Model predvideva čas pojavljanja odraslih osebkov in odlaganja jajčec skozi vse leto, kar uporabnikom omogoča ciljno usmerjeno spremljanje in/ali blažilne ukrepe za zmanjšanje tveganja za pojav škode na pridelku.
+MODEL: Osnova simulacijskega modela je serija enačb stopnje razvoja, ki so povezane v program.   Model simulira razvoj skupine 500 osebkov, ki se razvijejo do pojava odraslih osebkov, odlaganja jajčec in izleganja. Za vsako stopnjo se vsak dan izračuna odstotek razvoja z integracijo ustrezne krivulje stadija razvoja. Ta odstotek se kopiči po dnevih, dokler ne doseže vrednosti 100. Na tej točki posameznik preide v naslednji stadij. Variabilnost znotraj populacije žuželk je vključena s predpostavko, da so v vsakem trenutku stadija razvoja populacije, ki je na konstantni temperaturi, normalno porazdeljene (Phelps et al, 1993).  Model uporablja temperaturo tal ali zraka, odvisno od stadija razvoja. V modelu je mogoče določiti deleže zgodnjih in poznih biotipov v simulirani populaciji. Ker več skupin napreduje hkrati, se lahko pojavljanje odraslih osebkov in odlaganje jajčec zgodita istočasno.
+PARAMETRI: Za napoved korenjeve muhe so potrebne urne temperature tal na globini približno 6 cm in urne temperature zraka.
+REGIJA: Ta DSS je bil prilagojen na podlagi dela, opravljenega v Združenem Kraljestvu.
+PREDPOSTAVKE: Začetni datum za model je 1. februar, saj je to pogosto najhladnejše obdobje v letu.
+LITERATURA: Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).  Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342. Collier, R.H., Elliott, M.S. &amp; Finch, S. (1994).   Development of the overwintering stages of the carrot fly, Psila rosae, (Diptera:Psilidae).  Bulletin of Entomological Research 84, 469-476. Collier, R.H. &amp; Finch, S. (1996).  Field and laboratory studies on the effects of temperature on the development of the carrot fly (Psila rosae F.).  Annals of Applied Biology 128, 1-11.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">SKADEGJØREREN: Gulrotflue (Psila rosae/Chamaepsila rosae) overvintrer i jorda enten som diapauserende pupper eller som larver. Sent-utviklende insekter forblir larver og fortsetter å livnære seg på gulrotrøtter gjennom hele vinteren. Insektene som overvintrer som larver danner pupper i løpet av våren. Voksne fluer dukker deretter opp fra begge typer pupper. Hunnfluene legger egg i jorden nær gulrotplanter, og etter klekking lever larvene av røttene og går inn i dem, hvorpå de forårsaker skade. Disse larvene danner pupper, som fører til fremveksten av en ny generasjon voksne. Avhengig av det lokale klimaet kan antallet generasjoner gulrotflue, og når de kommer til, variere. Når været er spesielt varmt, kan gulrotfluepupper ligge i dvale gjennom sommeren.
 AVGJØRELSEN: Modellen forutsier tidspunktet for oppvekst av voksne og egglegging gjennom året, noe som gjør det mulig for brukere å foreta målrettet overvåking og/eller tiltak for å redusere risikoen for skade på avlingen.
 MODELLEN: En serie ligninger for utviklingsrater hos gulrotflue danner grunnlaget for simuleringsmodellen og er knyttet sammen i ett program. Modellen simulerer utviklingen av kohorter på 500 individer fra de blir voksne til de legger egg, og eggene klekkes. For hvert trinn beregnes den daglige prosentvise utviklingen ved å integrere den aktuelle kurven for utviklingsrate. Denne prosentandelen akkumuleres over flere dager til den når 100. På dette tidspunktet går individet videre til neste trinn. Variabilitet i insektpopulasjonen er inkorporert ved å anta at utviklingsratene til en populasjon som holdes ved konstant temperatur til enhver tid er normalfordelt (Phelps et al, 1993). Modellen bruker jordtemperaturer eller lufttemperaturer avhengig av utviklingsstadiet. Ettersom flere kohorter utvikler seg samtidig, kan forekomst av voksne individer og egglegging forekomme samtidig.
@@ -1361,6 +1879,23 @@
 </t>
   </si>
   <si>
+    <t>KENKĖJAS: Morkinės musės (Psila rosae/Chamaepsila rosae) žiemoja dirvožemyje kaip lėliukės arba lervos.  Vėlyvo vystymosi vabzdžiai lieka lervomis ir visą žiemą maitinasi morkų šaknimis. Vabzdžiai, kurie peržiemoja kaip lervos, pavasarį suformuoja lėliukes.  Vėliau iš abiejų tipų lėliukių išsirita suaugusios musės. Musių patelės deda kiaušinėlius į dirvą netoli augančių morkų, o išsiritusios lervos maitinasi šaknimis ir įsiskverbia į jas, taip darydamos žalą.  Iš šių lervų susiformuoja lėliukės, iš kurių išsirita nauja suaugėlių karta. Priklausomai nuo vietinio klimato, morkinių musių generacijų skaičius ir jų pasirodymo laikas gali skirtis.  Kai oras ypač karštas, morkinės musės lėliukės vasarą gali neišsiristi.
+SPRENDIMAS: Modelis prognozuoja suaugėlių pasirodymo ir kiaušinėlių dėjimo laiką ištisus metus, todėl naudotojai gali imtis tikslingos stebėsenos ir (arba) sušvelninimo veiksmų, siekiant sumažinti žalos pasėliams riziką.
+MODELIS: Simuliacinio modelio pagrindą sudaro kelios vystymosi greičio lygtys, sujungtos į programą.   Modelis imituoja 500 individų grupių vystymąsi suaugėlių pasirodymo, kiaušinių dėjimo ir išsiritimo laikotarpiais. Kiekvieno etapo išsivystymo procentinė dalis apskaičiuojama kiekvieną dieną integruojant atitinkamą išsivystymo greičio kreivę. Ši procentinė dalis kaupiama diena iš dienos, kol pasiekia 100. Tuomet individas pereina į kitą stadiją. Vabzdžių populiacijos kintamumas įvertinamas darant prielaidą, kad bet kuriuo momentu, pastovioje temperatūroje laikomos populiacijos vystymosi tempas yra normaliai pasiskirstęs (Phelps ir kt., 1993).  Modelyje naudojama dirvožemio arba oro temperatūra, priklausomai nuo vystymosi stadijos. Modelyje galima nurodyti ankstyvųjų ir vėlyvųjų biotipų proporcijas simuliuojamoje populiacijoje. Kadangi kelios grupės vystosi vienu metu, suaugėlių atsiradimas ir kiaušinėlių dėjimas gali vykti tuo pačiu metu.
+PARAMETRAI: Prognozavimui reikalinga valandinė oro ir dirvožemio temperatūra, maždaug 6 cm gylyje.
+REGIONAS: Ši SPS buvo pritaikyta pagal Jungtinėje Karalystėje atliktus tyrimus.
+PRIELAIDA: Modelio pradžia yra vasario 1 d., nes tai dažnai būna šalčiausias metų laikotarpis.</t>
+  </si>
+  <si>
+    <t>LE RAVAGEUR : La mouche de la carotte (Psila rosae/Chamaepsila rosae) passe l'hiver dans le sol sous forme de pupes diapausées ou de larves.  Les insectes à développement tardif restent sous forme de larves et continuent à se nourrir des racines de carottes pendant tout l'hiver. Les insectes qui hivernent à l'état larvaire forment des pupes au printemps.  Les mouches adultes émergent ensuite des deux types de pupes. Les mouches femelles pondent des œufs dans le sol à proximité des plants de carottes et, après l'éclosion, les larves se nourrissent des racines et creusent des tunnels dans celles-ci, causant des dommages. Ces larves forment des pupes, qui conduisent à l'émergence d'une nouvelle génération d'adultes. Selon le climat local, le nombre de générations de mouches de la carotte et le moment où elles apparaissent peuvent varier.  Lorsque le temps est particulièrement chaud, les pupes de la mouche de la carotte peuvent entrer en diapause estivale.
+LA DÉCISION : Le modèle prévoit le moment de l'émergence des adultes et de la ponte tout au long de l'année, permettant aux utilisateurs d'entreprendre une surveillance ciblée et/ou des actions d'atténuation pour réduire le risque de dommages à la culture.
+LE MODÈLE : Une série d'équations de taux de développement forment la base du modèle de simulation. Le modèle simule le développement de cohortes de 500 individus à travers l'émergence des adultes, la ponte des œufs et l'éclosion. Pour chaque étape, le pourcentage de développement est calculé chaque jour en intégrant la courbe de taux de développement appropriée. Ce pourcentage est accumulé au fil des jours jusqu'à ce qu'il atteigne 100. À ce stade, l'individu passe au stade suivant. La variabilité au sein de la population d'insectes est incorporée en supposant que, à tout instant, les taux de développement d'une population maintenue à une température constante sont distribués selon une loi normale (Phelps et al, 1993).  Le modèle utilise les températures du sol ou de l'air en fonction du stade de développement.  Comme plusieurs cohortes progressent simultanément, l'émergence des adultes et la ponte des œufs peuvent se produire en même temps.
+LES PARAMÈTRES : La prévision du développement de la mouche de la carotte nécessite des températures horaires du sol à une profondeur d'environ 6 cm et des températures horaires de l'air. 
+RÉGION : Cet OAD a été adapté à partir de travaux réalisés au Royaume-Uni 
+HYPOTHESES : La date de début du modèle est le 1er février, car c'est souvent la période la plus froide de l'année.
+RÉFÉRENCE : Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Méthode de simulation de Monte Carlo pour prévoir le moment des attaques d'insectes nuisibles.  Crop Protection 12, 335-342. Collier, R.H., Elliott, M.S. &amp; Finch, S. (1994).   Développement des stades d'hivernage de la mouche de la carotte, Psila rosae, (Diptera:Psilidae).  Bulletin of Entomological Research 84, 469-476. Collier, R.H. &amp; Finch, S. (1996).  Études de terrain et de laboratoire sur les effets de la température sur le développement de la mouche de la carotte (Psila rosae F.).  Annals of Applied Biology 128, 1-11.</t>
+  </si>
+  <si>
     <t>"Il parassita: le mosche della carota (Psila rosae/Chamaepsila rosae) svernano nel terreno come pupe diapausanti o come larve.  Gli insetti a sviluppo tardivo rimangono come larve e continuano a nutrirsi di radici di carota per tutto l'inverno. Gli insetti che svernano come larve formano le pupe in primavera.  Le mosche adulte emergono successivamente da entrambi i tipi di pupe.   Le mosche femmine depongono le uova nel terreno vicino alle piante di carota e, dopo la schiusa, le larve si nutrono delle radici e vi scavano una galleria, causando danni.  Queste larve formano le pupe, che portano alla nascita di una nuova generazione di adulti. A seconda del clima locale, il numero di generazioni di mosca della carota e il loro calendario possono variare.  Quando il clima è particolarmente caldo, le pupe della mosca della carota possono estivare.
 LA DECISIONE: Il modello prevede i tempi di comparsa degli adulti e di deposizione delle uova durante l'anno, consentendo agli utenti di intraprendere un monitoraggio mirato e/o azioni di mitigazione per ridurre il rischio di danni alle colture.
 IL MODELLO: Una serie di equazioni del tasso di sviluppo costituiscono la base del modello di simulazione e sono collegate tra loro in un programma.   Il modello simula lo sviluppo di coorti di 500 individui attraverso la comparsa degli adulti, la deposizione delle uova e la schiusa. Per ogni stadio, la percentuale di sviluppo viene calcolata ogni giorno integrando la curva del tasso di sviluppo appropriato. Questa percentuale viene accumulata nel corso dei giorni fino a raggiungere il valore di 100. A questo punto l'individuo passa alla fase di crescita. A questo punto l'individuo passa allo stadio successivo. La variabilità all'interno della popolazione di insetti è incorporata assumendo che, in qualsiasi istante, i tassi di sviluppo di una popolazione mantenuta a temperatura costante siano normalmente distribuiti (Phelps et al, 1993).  Il modello utilizza le temperature del suolo o dell'aria a seconda dello stadio di sviluppo.  Poiché più coorti progrediscono simultaneamente, la comparsa degli adulti e la deposizione delle uova possono avvenire nello stesso momento.
@@ -1370,6 +1905,9 @@
 RIFERIMENTO: Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Metodo di simulazione Monte Carlo per la previsione dei tempi di attacco degli insetti nocivi.  Crop Protection 12, 335-342. Collier, R.H., Elliott, M.S. &amp; Finch, S. (1994).   Sviluppo degli stadi svernanti della mosca della carota, Psila rosae, (Diptera:Psilidae).  Bollettino di ricerca entomologica 84, 469-476. Collier, R.H. &amp; Finch, S. (1996).  Studi in campo e in laboratorio sugli effetti della temperatura sullo sviluppo della mosca della carota (Psila rosae F.).  Annali di Biologia Applicata 128, 1-11".</t>
   </si>
   <si>
+    <t>Ο Εχθρός: Οι μύγες του καρότου (Psila rosae/Chamaepsila rosae) διαχειμάζουν στο έδαφος είτε ως κουκούλια είτε ως προνύμφες.  Τα όψιμα έντομα παραμένουν ως προνύμφες και συνεχίζουν να τρέφονται από τις ρίζες του καρότου καθ' όλη τη διάρκεια του χειμώνα. Τα έντομα που διαχειμάζουν ως προνύμφες σχηματίζουν κουκούλια κατά τη διάρκεια της άνοιξης.  Οι ενήλικες μύγες αναδύονται στη συνέχεια και από τους δύο τύπους κουκουλιών.   Οι θηλυκές μύγες γεννούν αυγά στο έδαφος κοντά στα φυτά καρότου και, μετά την εκκόλαψη, οι προνύμφες τρέφονται με τις ρίζες και εισχωρούν σε αυτές, προκαλώντας ζημιές.  Αυτές οι προνύμφες σχηματίζουν κουκούλια, τα οποία οδηγούν στην εμφάνιση μιας νέας γενιάς ενηλίκων. Ανάλογα με το τοπικό κλίμα ο αριθμός των γενεών της μύγας του καρότου και ο χρόνος εμφάνισής τους μπορεί να διαφέρουν.  Όταν ο καιρός είναι ιδιαίτερα ζεστός, τα κουτάβια της μύγας του καρότου μπορεί να αφυδατωθούν. Η ΑΠΟΦΑΣΗ: Το μοντέλο προβλέπει το χρόνο εμφάνισης των ενηλίκων και της ωοτοκίας καθ' όλη τη διάρκεια του έτους, επιτρέποντας στους χρήστες να αναλάβουν στοχευμένη παρακολούθηση ή/και ενέργειες μετριασμού για τη μείωση του κινδύνου ζημιών στην καλλιέργεια. ΤΟ ΜΟΝΤΕΛΟ: Μια σειρά εξισώσεων ρυθμού ανάπτυξης αποτελούν τη βάση του μοντέλου προσομοίωσης και συνδέονται μεταξύ τους σε ένα πρόγραμμα.   Το μοντέλο προσομοιώνει την ανάπτυξη κοορτών των 500 ατόμων μέσω της εμφάνισης ενηλίκων, της ωοτοκίας και της εκκόλαψης. Για κάθε στάδιο, το ποσοστό ανάπτυξης υπολογίζεται κάθε μέρα με την ενσωμάτωση της κατάλληλης καμπύλης ρυθμού ανάπτυξης. Το ποσοστό αυτό συσσωρεύεται με την πάροδο των ημερών έως ότου φθάσει το 100. Σε αυτό το σημείο το άτομο μεταβαίνει στο επόμενο στάδιο. Η μεταβλητότητα εντός του πληθυσμού των εντόμων ενσωματώνεται με την παραδοχή ότι, σε κάθε στιγμή, οι ρυθμοί ανάπτυξης ενός πληθυσμού που διατηρείται σε σταθερή θερμοκρασία κατανέμονται κανονικά (Phelps et al, 1993).  Το μοντέλο χρησιμοποιεί θερμοκρασίες εδάφους ή αέρα ανάλογα με το στάδιο ανάπτυξης.  Καθώς πολλές κοόρτες εξελίσσονται ταυτόχρονα, η εμφάνιση ενηλίκων και η ωοτοκία μπορούν να συμβούν ταυτόχρονα.  ΟΙ ΠΑΡΑΜΕΤΡΟΙ: Η πρόβλεψη της μύγας του καρότου απαιτεί ωριαίες θερμοκρασίες εδάφους σε βάθος περίπου 6 cm και ωριαίες θερμοκρασίες αέρα. ΠΕΡΙΟΧΗ: Αυτό το DSS προσαρμόστηκε από εργασίες που πραγματοποιήθηκαν στο Ηνωμένο Βασίλειο.  ΥΠΟΘΕΣΗ: Η ημερομηνία έναρξης του μοντέλου είναι η 1η Φεβρουαρίου, καθώς αυτή είναι συχνά η ψυχρότερη περίοδος του έτους. REFERENCE: Phelps, K., Collier, R.H., Reader, R.J. &amp; Finch, S. (1993).   Monte Carlo simulation method for forecasting the timing of pest insect attacks.  Crop Protection 12, 335-342. Collier, R.H., Elliott, M.S. &amp; Finch, S. (1994).   Development of the overwintering stages of the carrot fly, Psila rosae, (Diptera:Psilidae).  Bulletin of Entomological Research 84, 469-476. Collier, R.H. &amp; Finch, S. (1996).  Field and laboratory studies on the effects of temperature on the development of the carrot fly (Psila rosae F.).  Annals of Applied Biology 128, 1-11."</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.name</t>
   </si>
   <si>
@@ -1382,6 +1920,9 @@
     <t>Möhrenfliege</t>
   </si>
   <si>
+    <t>Korenjeva muha</t>
+  </si>
+  <si>
     <t>Gulrotflue</t>
   </si>
   <si>
@@ -1391,12 +1932,24 @@
     <t>Porkkanakärpänen</t>
   </si>
   <si>
+    <t>Morkinė musė</t>
+  </si>
+  <si>
+    <t>Mouche de la carotte</t>
+  </si>
+  <si>
     <t>Mosca della carota</t>
   </si>
   <si>
+    <t>Μύγα καρότου</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.chart_groups.G1.title</t>
   </si>
   <si>
+    <t>Suminis pasirodymas</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.chart_groups.G2.title</t>
   </si>
   <si>
@@ -1406,6 +1959,9 @@
     <t>Kumulatiivinen muniminen</t>
   </si>
   <si>
+    <t>Padėtų kiaušinėlių suma</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.chart_heading</t>
   </si>
   <si>
@@ -1427,12 +1983,18 @@
     <t>WarwickHRI.0_0_1.models.PSILRO.output.result_parameters.High_Risk_Threshold.description</t>
   </si>
   <si>
+    <t>Aukštos rizikos riba</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.result_parameters.High_Risk_Threshold.title</t>
   </si>
   <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.result_parameters.Low_Risk_Threshold_First.description</t>
   </si>
   <si>
+    <t>Žemos rizikos riba</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.result_parameters.Low_Risk_Threshold_First.title</t>
   </si>
   <si>
@@ -1445,6 +2007,9 @@
     <t>WarwickHRI.0_0_1.models.PSILRO.output.result_parameters.Medium_Risk_Threshold.description</t>
   </si>
   <si>
+    <t>Vidutinės rizikos riba</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.result_parameters.Medium_Risk_Threshold.title</t>
   </si>
   <si>
@@ -1457,9 +2022,15 @@
     <t>WarwickHRI.0_0_1.models.PSILRO.output.warning_status_interpretation.1.explanation</t>
   </si>
   <si>
+    <t>Trūksta duomenų</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.warning_status_interpretation.1.recommended_action</t>
   </si>
   <si>
+    <t>Peržiūrėkite klaidos pranešimą.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.warning_status_interpretation.2.explanation</t>
   </si>
   <si>
@@ -1469,6 +2040,9 @@
     <t>Tämä malli kerää tietoja suoritettavaksi. Käytettävissä olevien tietojen perusteella mallin tulokset osoittavat, ettei tällä hetkellä riskiä ole.</t>
   </si>
   <si>
+    <t>Modelis šiuo metu renka duomenis, kad galėtų veikti. Remiantis šiuo metu turimais duomenimis, modelio rezultatai nerodo kenkėjų aktyvumo rizikos.</t>
+  </si>
+  <si>
     <t>Il modello sta raccogliendo dati per essere eseguito. Sulla base dei dati disponibili, i risultati del modello indicano che non c'è alcun rischio attuale di attività dei parassiti.</t>
   </si>
   <si>
@@ -1481,15 +2055,30 @@
     <t xml:space="preserve">Das Risiko 1) des Auftretens und/oder 2) der Eiablage ist gering. Das Risiko wird weiterhin überprüft. </t>
   </si>
   <si>
+    <t xml:space="preserve">Tveganje 1) pojava in/ali 2) odlaganja jajčec je majhno. Nadaljujte s pregledovanjem tveganja. </t>
+  </si>
+  <si>
     <t>1) esiintymisen ja/tai 2) munimisen riski on pieni. Jatka riskien tarkastelua.</t>
   </si>
   <si>
+    <t xml:space="preserve">1) atsiradimo ir/arba 2) kiaušinių dėjimo rizika yra maža. Toliau stebėkite rizikos lygį. </t>
+  </si>
+  <si>
+    <t>Le risque 1) d'émergence, et/ou 2) de ponte, est faible. Continuer à surveiller le risque.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Il rischio di 1) comparsa e/o 2) deposizione di uova è basso. Continuare a rivedere il rischio. </t>
   </si>
   <si>
+    <t>Ο κίνδυνος 1) εμφάνισης ή/και 2) ωοτοκίας είναι χαμηλός. Συνεχίστε να επανεξετάζετε τον κίνδυνο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.warning_status_interpretation.3.explanation</t>
   </si>
   <si>
+    <t>Šis modelis veikia vasario-gruodžio mėn. Remiantis šiuo metu turimais duomenimis, modelis numato vidutinę riziką.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.warning_status_interpretation.3.recommended_action</t>
   </si>
   <si>
@@ -1499,15 +2088,30 @@
     <t>Das Risiko 1) des Auftretens und/oder 2) der Eiablage nimmt zu. Erhöhen Sie die Überwachungsmaßnahmen in gefährdeten Kulturen. Ein mittleres Risiko ist gegeben, wenn eine der folgenden Bedingungen für eine der Generationen erreicht wird: 1) bis zu 10 % kumulatives Aufteretn und/oder 2) bis zu 10 % kumulative Eiablage.  Um die Ursache des Risikos zu ermitteln, sehen Sie sich bitte die beigefügten Diagramme an, die zeigen, wann ein Schwellenwert überschritten wurde.</t>
   </si>
   <si>
+    <t>Tveganje 1) pojava in/ali 2) odlaganja jajčec se povečuje. Pozorneje spremljajte prisotnost korenjeve muhe v dovzetnih posevkih. Srednje tveganje se pokaže, če je za katero koli od naslednjih generacij doseženo naslednje: 1) do 10 % kumulativnega pojava in/ali 2) do 10 % kumulativnega odlaganja jajčec.  Da bi ugotovili vzrok tveganja, si oglejte priložene grafe, ki ponazarjajo, kdaj je bil prag presežen.</t>
+  </si>
+  <si>
     <t>Riski 1) esiintymisestä ja/tai 2) munimisesta kasvaa. Jatka viljelykasvien tarkkailu. Keskisuuri riski on indikoitu, kun jokin seuraavista saavutetaan jollekin sukupolvelle; 1) enintään 10 % kumulatiivinen esiintyminen ja/tai 2) enintään 10 % kumulatiivinen muniminen. Määrittääksesi riskin syyn, katso oheiset kaaviot, jotka osoittavat, milloin kynnys on ylitetty.</t>
   </si>
   <si>
+    <t>1) atsiradimo ir/arba 2) kiaušinių dėjimo rizika didėja. Atidžiau stebėkite pažeidžiamų pasėlius. Vidutinė rizika nurodoma, kai bet kurioje iš toliau nurodytų kartų pasiekiamas bet kuris iš šių rodiklių: 1) iki 10 % suminio pasirodymas ir/arba 2) iki 10 % Padėtų kiaušinėlių suma.  Norėdami nustatyti rizikos priežastį, žiūrėkite pridedamus laukelius, kuriuose pavaizduota, kada riba buvo viršyta.</t>
+  </si>
+  <si>
+    <t>Le risque 1) d'émergence, et/ou 2) de ponte, est en augmentation. Augmentez les efforts de surveillance dans les cultures vulnérables. Un risque moyen est indiqué lorsque l'un des seuils suivants est atteint pour l'une des générations : 1) jusqu'à 10 % d'émergence cumulée, et/ou 2) jusqu'à 10 % de ponte cumulée.  Pour déterminer la cause du risque, veuillez vous référer aux graphiques, qui illustrent le dépassement d'un seuil.</t>
+  </si>
+  <si>
     <t>Il rischio di 1) comparsa e/o 2) deposizione di uova è in aumento. Aumentare gli sforzi di monitoraggio nelle colture vulnerabili. Il rischio medio è indicato quando si raggiunge uno dei seguenti valori per una qualsiasi delle generazioni: 1) fino al 10% di emergenza cumulativa e/o 2) fino al 10% di deposizione cumulativa di uova.  Per determinare la causa del rischio, fare riferimento ai grafici allegati, che illustrano il superamento di una soglia.</t>
   </si>
   <si>
+    <t>Ο κίνδυνος 1) εμφάνισης ή/και 2) ωοτοκίας αυξάνεται. Αυξήστε τις προσπάθειες παρακολούθησης σε ευάλωτες καλλιέργειες. Ο μέσος κίνδυνος υποδεικνύεται όταν επιτυγχάνεται ένα από τα ακόλουθα για οποιαδήποτε από τις γενιές: 1) έως 10% αθροιστικά εμφάνιση, ή/και 2) έως 10% αθροιστικά ωοτοκία.  Για να προσδιορίσετε την αιτία του κινδύνου, ανατρέξτε στα συνοδευτικά διαγράμματα, τα οποία απεικονίζουν πότε έχει ξεπεραστεί ένα όριο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.warning_status_interpretation.4.explanation</t>
   </si>
   <si>
+    <t xml:space="preserve">Šis modelis veikia vasario-gruodžio mėn. Remiantis šiuo metu turimais duomenimis, modelis prognozuoja didelę riziką. </t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.output.warning_status_interpretation.4.recommended_action</t>
   </si>
   <si>
@@ -1517,12 +2121,24 @@
     <t>Das Risiko 1) des Auftretens und/oder 2) der Eiablage ist hoch.  Überwachen Sie gefährdete Kulturen auf Aktivitäten im Feld. Ein hohes Risiko wird angezeigt, wenn eine der folgenden Bedingungen für eine der Generationen erreicht wird: 1) 10-50% kumulatives Auftreten und/oder 2) 10-50% kumulative Eiablage.  Um die Ursache des Risikos zu ermitteln, sehen Sie sich bitte die beigefügten Diagramme an, die zeigen, wann ein Schwellenwert überschritten wurde.</t>
   </si>
   <si>
+    <t>Tveganje 1) pojava in/ali 2) odlaganja jajčec je visoko.  Pozorno spremljajte prisotnost korenjeve muhe v dovzetnih posevkih.  Visoko tveganje se pokaže, ko je za katero koli od naslednjih generacij doseženo naslednje: 1) 10-50 % kumulativnega pojava in/ali 2) 10-50 % kumulativnega odlaganja jajčec.  Da bi ugotovili vzrok tveganja, si oglejte priložene ploskve, ki ponazarjajo, kdaj je bil prag presežen.</t>
+  </si>
+  <si>
     <t>Riski 1) esiintymisestä ja/tai 2) munimisesta on suuri. Tarkkaile viljelykasveja pellolla tapahtuvan toiminnan varalta. Korkea riski on indikoitu, kun jokin seuraavista saavutetaan jollekin sukupolvelle; 1) 10-50 % kumulatiivinen muniminen ja/tai 2) 10-50 % kumulatiivinen muniminen. Määrittääksesi riskin syyn, katso oheiset kaaviot, jotka osoittavat, milloin kynnys on ylitetty.</t>
   </si>
   <si>
+    <t>1) kenkėjų pasirodymo ir/arba 2) kiaušinių dėjimo rizika yra didelė.  Stebėkite pažeidžiamus pasėlius, ar nėra kenkėjų aktyvumo pasėlyje. Didelė rizika nurodoma, kai bet kurioje iš toliau nurodytų generacijų pasiekiamas bet kuris iš šių rodiklių: 1) 10-50 proc. suminis pasirodymas ir/arba 2) 10-50 proc. padėtų kiaušinėlių suma.  Norėdami nustatyti rizikos priežastį, žiūrėkite pridedamus laukelius, kuriuose pavaizduota, kada riba buvo viršyta.</t>
+  </si>
+  <si>
+    <t>Le risque 1) d'émergence, et/ou 2) de ponte, est élevé.  Surveiller les cultures vulnérables pour l'activité au champ. Un risque élevé est indiqué lorsque l'un des seuils suivants est atteint pour l'une ou l'autre des générations ; 1) 10-50 % d'émergence cumulative, et/ou 2) 10-50 % de ponte cumulative.  Pour déterminer la cause du risque, veuillez vous référer aux graphiques, qui illustrent le dépassement d'un seuil.</t>
+  </si>
+  <si>
     <t>Il rischio di 1) emergenza e/o 2) deposizione di uova è elevato.  Monitorare le colture vulnerabili per verificare l'attività sul campo. Il rischio elevato è indicato quando si raggiunge uno dei seguenti valori per una qualsiasi delle generazioni: 1) 10-50% di emergenza cumulativa e/o 2) 10-50% di deposizione cumulativa di uova.  Per determinare la causa del rischio, consultare i grafici allegati, che illustrano il superamento di una soglia.</t>
   </si>
   <si>
+    <t>Ο κίνδυνος 1) εμφάνισης ή/και 2) ωοτοκίας είναι υψηλός.  Παρακολουθήστε τις ευάλωτες καλλιέργειες για δραστηριότητα στον αγρό. Ο υψηλός κίνδυνος υποδεικνύεται όταν επιτυγχάνεται ένα από τα ακόλουθα για οποιαδήποτε από τις γενιές: 1) 10-50% αθροιστική εμφάνιση, και/ή 2) 10-50% αθροιστική ωοτοκία.  Για να προσδιορίσετε την αιτία του κινδύνου, ανατρέξτε στα συνοδευτικά διαγράμματα, τα οποία απεικονίζουν πότε έχει ξεπεραστεί ένα όριο.</t>
+  </si>
+  <si>
     <t>WarwickHRI.0_0_1.models.PSILRO.purpose</t>
   </si>
   <si>
@@ -1535,6 +2151,9 @@
     <t>Schätzt den Zeitpunkt der Aktivität der Möhrenfliege</t>
   </si>
   <si>
+    <t>Ocena časa aktivnosti korenjeve muhe</t>
+  </si>
+  <si>
     <t>Forutsier tidspunktet for aktivitet av gulrotflue</t>
   </si>
   <si>
@@ -1544,14 +2163,23 @@
     <t>Arvioi porkkanakärpäsen aktiivisuuden ajoituksen</t>
   </si>
   <si>
+    <t>Morkinės musės aktyvumo laikotarpio įvertinimas</t>
+  </si>
+  <si>
+    <t>Estime le moment de l'activité de la mouche de la carotte</t>
+  </si>
+  <si>
     <t>Stima dei tempi di attività della mosca della carota</t>
+  </si>
+  <si>
+    <t>Εκτιμά τη χρονική στιγμή της δραστηριότητας της μύγας του καρότου</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1580,6 +2208,61 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1635,7 +2318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1659,9 +2342,56 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1999,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2071,7 +2801,7 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
@@ -2083,7 +2813,7 @@
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
@@ -2114,16 +2844,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C21" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2142,7 +2876,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2163,7 +2897,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -2189,665 +2923,905 @@
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F2" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G2" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>89</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1">
+        <v>113</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1">
+        <v>113</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="7"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>99</v>
+        <v>124</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1">
+        <v>126</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>107</v>
+        <v>135</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1">
+        <v>137</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>112</v>
+        <v>142</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="2" customFormat="1">
+        <v>146</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>119</v>
+        <v>152</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1">
+        <v>156</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>126</v>
+        <v>162</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1">
+        <v>166</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>133</v>
+        <v>172</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="2" customFormat="1">
+        <v>176</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1">
+        <v>186</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>147</v>
+        <v>192</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1">
+        <v>196</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>154</v>
+        <v>202</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>157</v>
+        <v>206</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2857,18 +3831,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C29" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="6" max="6" width="9.140625" style="27"/>
     <col min="7" max="8" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="46.140625" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2887,7 +3865,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2923,690 +3901,960 @@
     </row>
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>161</v>
+        <v>212</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>163</v>
+        <v>215</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1">
+        <v>217</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="38.25">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>222</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>170</v>
+        <v>225</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1">
+        <v>227</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="38.25">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="51">
+      <c r="A5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="51">
+      <c r="A6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="25.5">
+      <c r="A7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="76.5">
+      <c r="A8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="51">
+      <c r="A9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="K9" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" ht="76.5">
+      <c r="A10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="51">
+      <c r="A11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" ht="51">
+      <c r="A12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="25.5">
+      <c r="A13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1">
-      <c r="A7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1">
-      <c r="A10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1">
-      <c r="A11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1">
-      <c r="A13" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
+      <c r="F13" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>208</v>
+        <v>280</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1">
+        <v>47</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="38.25">
       <c r="A14" s="2" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1">
+        <v>86</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="38.25">
       <c r="A15" s="2" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1">
+        <v>289</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="38.25">
       <c r="A16" s="2" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="38.25">
       <c r="A17" s="2" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="38.25">
       <c r="A18" s="2" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="38.25">
       <c r="A19" s="2" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="38.25">
       <c r="A20" s="2" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1">
+        <v>113</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="38.25">
       <c r="A21" s="2" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1">
+        <v>113</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1">
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" s="2" customFormat="1">
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>300</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1">
+        <v>126</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>302</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1">
+        <v>137</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="60.75">
       <c r="A26" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>230</v>
+        <v>304</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>232</v>
+        <v>307</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>114</v>
+        <v>145</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="2" customFormat="1">
+        <v>308</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="45.75">
       <c r="A27" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>235</v>
+        <v>309</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>237</v>
+        <v>312</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>239</v>
+        <v>314</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1">
+        <v>316</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="2" customFormat="1" ht="45.75">
       <c r="A28" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
+        <v>318</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>126</v>
+        <v>162</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>128</v>
+        <v>165</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1">
+        <v>320</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="198">
       <c r="A29" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>245</v>
+        <v>321</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>247</v>
+        <v>324</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>325</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>249</v>
+        <v>327</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="2" customFormat="1">
+        <v>329</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="45.75">
       <c r="A30" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>138</v>
+        <v>331</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>142</v>
+        <v>185</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="2" customFormat="1">
+        <v>333</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="183">
       <c r="A31" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>255</v>
+        <v>334</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>257</v>
+        <v>337</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>259</v>
+        <v>340</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="2" customFormat="1">
+        <v>342</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" ht="30.75">
       <c r="A32" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>262</v>
+        <v>344</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>264</v>
+        <v>347</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>266</v>
+        <v>350</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>267</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3617,841 +4865,1116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C21" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="36" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" style="14" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="13"/>
+    <col min="7" max="8" width="19.85546875" style="13" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="13"/>
+    <col min="11" max="11" width="41.7109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="13"/>
+    <col min="13" max="13" width="42.7109375" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="409.6">
-      <c r="A2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="409.6">
+      <c r="A2" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A3" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A4" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A5" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A6" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A7" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A8" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A9" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A10" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A11" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A12" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A13" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A14" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="D14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A15" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="16" customFormat="1" ht="15.75">
+      <c r="A16" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A17" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A18" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A19" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A20" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1">
-      <c r="A7" s="2" t="s">
+      <c r="D20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A21" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="16" customFormat="1">
+      <c r="A22" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" s="16" customFormat="1">
+      <c r="A23" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A24" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1">
-      <c r="A8" s="2" t="s">
+      <c r="D24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A25" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A26" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1">
-      <c r="A10" s="2" t="s">
+      <c r="D26" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A27" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A28" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1">
-      <c r="A11" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="D28" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A29" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A30" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="D30" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" s="15" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1">
-      <c r="A13" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1">
-      <c r="A14" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1">
-      <c r="A15" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1">
-      <c r="A16" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1">
-      <c r="A17" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1">
-      <c r="A18" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1">
-      <c r="A19" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1">
-      <c r="A20" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1">
-      <c r="A21" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1">
-      <c r="A23" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" s="2" customFormat="1">
-      <c r="A24" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1">
-      <c r="A25" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1">
-      <c r="A26" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="2" customFormat="1">
-      <c r="A27" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1">
-      <c r="A28" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1">
-      <c r="A29" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="2" customFormat="1">
-      <c r="A30" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="2" customFormat="1">
-      <c r="A31" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="2" customFormat="1">
-      <c r="A32" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>391</v>
+      <c r="M30" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A31" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="16" customFormat="1" ht="15.75">
+      <c r="A32" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -4464,14 +5987,18 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <pane xSplit="2" topLeftCell="C26" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="7" max="7" width="59.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4526,696 +6053,1016 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A2" s="2" t="s">
-        <v>392</v>
+        <v>517</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>393</v>
+        <v>518</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>395</v>
+        <v>520</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>521</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>397</v>
+        <v>523</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>398</v>
+        <v>524</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>526</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1">
+        <v>527</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>401</v>
+        <v>530</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>402</v>
+        <v>531</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>403</v>
+        <v>532</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>533</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>404</v>
+        <v>534</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>405</v>
+        <v>535</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>406</v>
+        <v>536</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>538</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1">
+        <v>539</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>408</v>
+        <v>541</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1">
+        <v>47</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>409</v>
+        <v>543</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="15.75">
+      <c r="A8" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="15.75">
+      <c r="A9" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="I9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1">
-      <c r="A7" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="M9" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" ht="15.75">
+      <c r="A10" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F10" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1">
-      <c r="A10" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>38</v>
+      <c r="J10" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1">
+        <v>47</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>418</v>
+        <v>553</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1">
+        <v>86</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>419</v>
+        <v>555</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1">
+        <v>89</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>420</v>
+        <v>556</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>421</v>
+        <v>558</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>422</v>
+        <v>559</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>423</v>
+        <v>560</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>424</v>
+        <v>561</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1">
+        <v>113</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>425</v>
+        <v>563</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1">
+        <v>113</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>426</v>
+        <v>564</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>427</v>
+        <v>565</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>428</v>
+        <v>566</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="7" t="s">
-        <v>99</v>
+        <v>124</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1">
+        <v>126</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="45.75">
       <c r="A22" s="2" t="s">
-        <v>429</v>
+        <v>568</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="7" t="s">
-        <v>107</v>
+        <v>135</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>460</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1">
+        <v>137</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="244.5">
       <c r="A23" s="2" t="s">
-        <v>430</v>
+        <v>570</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>431</v>
+        <v>571</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>463</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>432</v>
+        <v>572</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="2" customFormat="1">
+        <v>574</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="152.25">
       <c r="A24" s="2" t="s">
-        <v>434</v>
+        <v>575</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>435</v>
+        <v>576</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>436</v>
+        <v>577</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>578</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>437</v>
+        <v>579</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>581</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1">
+        <v>582</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="198">
       <c r="A25" s="2" t="s">
-        <v>439</v>
+        <v>584</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>126</v>
+        <v>162</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1">
+        <v>482</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="409.6">
       <c r="A26" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>441</v>
+        <v>586</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>442</v>
+        <v>588</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>589</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>443</v>
+        <v>590</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="2" customFormat="1">
+        <v>593</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="198">
       <c r="A27" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>138</v>
+        <v>595</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>143</v>
+        <v>186</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1">
+        <v>333</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="2" customFormat="1" ht="409.6">
       <c r="A28" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>447</v>
+        <v>597</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>448</v>
+        <v>599</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>600</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>449</v>
+        <v>601</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>603</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1">
+        <v>604</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="76.5">
       <c r="A29" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>452</v>
+        <v>606</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>453</v>
+        <v>608</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>454</v>
+        <v>609</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>610</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>455</v>
+        <v>611</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>456</v>
+        <v>612</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>457</v>
+        <v>613</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>615</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>616</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -5224,6 +7071,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5483,30 +7352,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAA5D993-3DDE-4D0C-AC2E-FDAC30244A0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E87F604E-6227-4C1D-AAEF-DDA17D15E1A9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5514,5 +7361,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E87F604E-6227-4C1D-AAEF-DDA17D15E1A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAA5D993-3DDE-4D0C-AC2E-FDAC30244A0F}"/>
 </file>